--- a/validation/casjen2003_newloci.xlsx
+++ b/validation/casjen2003_newloci.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/GitHub/happie/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426861CC-C83B-A646-9062-DE0540BF2129}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1184A782-573B-5945-A190-DBB7EBF39490}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="460" windowWidth="25560" windowHeight="17040" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
+    <workbookView xWindow="0" yWindow="7100" windowWidth="19660" windowHeight="10400" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1359">
   <si>
     <r>
       <t>Agrobacterium tumefa</t>
@@ -8189,6 +8189,198 @@
   </si>
   <si>
     <t>valid_locus_end</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>NC_000949.1</t>
+  </si>
+  <si>
+    <t>NC_000950.1</t>
+  </si>
+  <si>
+    <t>NC_000951.1</t>
+  </si>
+  <si>
+    <t>NC_000952.1</t>
+  </si>
+  <si>
+    <t>NC_000953.1</t>
+  </si>
+  <si>
+    <t>NC_000954.1</t>
+  </si>
+  <si>
+    <t>NC_000956.1</t>
+  </si>
+  <si>
+    <t>NC_001852.1</t>
+  </si>
+  <si>
+    <t>NC_001857.2</t>
+  </si>
+  <si>
+    <t>NC_000948.1</t>
+  </si>
+  <si>
+    <t>NC_003317.1</t>
+  </si>
+  <si>
+    <t>NC_004310.3</t>
+  </si>
+  <si>
+    <t>NC_002696.2</t>
+  </si>
+  <si>
+    <t>AE002163.1</t>
+  </si>
+  <si>
+    <t>NC_003030.1</t>
+  </si>
+  <si>
+    <t>NC_003366.1</t>
+  </si>
+  <si>
+    <t>NC_004557.1</t>
+  </si>
+  <si>
+    <t>NC_001264.1</t>
+  </si>
+  <si>
+    <t>NC_001263.1</t>
+  </si>
+  <si>
+    <t>NC_000913.3</t>
+  </si>
+  <si>
+    <t>CP008957.1</t>
+  </si>
+  <si>
+    <t>NC_004431.1</t>
+  </si>
+  <si>
+    <t>NC_000907.1</t>
+  </si>
+  <si>
+    <t>NC_002662.1</t>
+  </si>
+  <si>
+    <t>NC_003212.1</t>
+  </si>
+  <si>
+    <t>NC_003210.1</t>
+  </si>
+  <si>
+    <t>NC_002678.2</t>
+  </si>
+  <si>
+    <t>NC_002755.2</t>
+  </si>
+  <si>
+    <t>NC_000962.3</t>
+  </si>
+  <si>
+    <t>NC_003112.2</t>
+  </si>
+  <si>
+    <t>NC_003116.1</t>
+  </si>
+  <si>
+    <t>NC_004193.1</t>
+  </si>
+  <si>
+    <t>NC_002663.1</t>
+  </si>
+  <si>
+    <t>PM0282 and PM0283</t>
+  </si>
+  <si>
+    <t>NC_002516.2</t>
+  </si>
+  <si>
+    <t>NC_002947.4</t>
+  </si>
+  <si>
+    <t>NC_003295.1</t>
+  </si>
+  <si>
+    <t>NC_003103.1</t>
+  </si>
+  <si>
+    <t>NC_003198.1</t>
+  </si>
+  <si>
+    <t>NC_003385.1</t>
+  </si>
+  <si>
+    <t>NC_003197.2</t>
+  </si>
+  <si>
+    <t>NC_004347.2</t>
+  </si>
+  <si>
+    <t>NC_004337.2</t>
+  </si>
+  <si>
+    <t>NC_003047.1</t>
+  </si>
+  <si>
+    <t>NC_002745.2</t>
+  </si>
+  <si>
+    <t>NC_002758.2</t>
+  </si>
+  <si>
+    <t>NC_003923.1</t>
+  </si>
+  <si>
+    <t>NC_004116.1</t>
+  </si>
+  <si>
+    <t>NC_002737.2</t>
+  </si>
+  <si>
+    <t>NC_003485.1</t>
+  </si>
+  <si>
+    <t>NC_004070.1</t>
+  </si>
+  <si>
+    <t>TTE2125…2127</t>
+  </si>
+  <si>
+    <t>TTE2018.. 2031</t>
+  </si>
+  <si>
+    <t>NC_003869.1</t>
+  </si>
+  <si>
+    <t>NC_002505.1</t>
+  </si>
+  <si>
+    <t>NC_004344.2</t>
+  </si>
+  <si>
+    <t>NC_003902.1</t>
+  </si>
+  <si>
+    <t>NC_002488.3</t>
+  </si>
+  <si>
+    <t>NC_004556.1</t>
+  </si>
+  <si>
+    <t>?PD957…?PD957</t>
+  </si>
+  <si>
+    <t>NC_003143.1</t>
+  </si>
+  <si>
+    <t>NC_003134.1</t>
+  </si>
+  <si>
+    <t>NC_004088.1</t>
   </si>
 </sst>
 </file>
@@ -12738,22 +12930,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AAF560-B6FB-894C-9E5A-8825C913F289}">
-  <dimension ref="A1:K304"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="L302" sqref="L302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="8" style="12" customWidth="1"/>
-    <col min="3" max="4" width="25.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="12" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="12" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>879</v>
       </c>
@@ -12787,8 +12980,11 @@
       <c r="K1" s="12" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="L1" s="12" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>978</v>
       </c>
@@ -12819,7 +13015,7 @@
         <v>461757</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G3" s="11" t="s">
         <v>881</v>
       </c>
@@ -12836,7 +13032,7 @@
         <v>958123</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
@@ -12853,7 +13049,7 @@
         <v>2143392</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>979</v>
       </c>
@@ -12871,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>980</v>
       </c>
@@ -12902,7 +13098,7 @@
         <v>150419</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G7" s="11" t="s">
         <v>975</v>
       </c>
@@ -12919,7 +13115,7 @@
         <v>1039160</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
@@ -12936,7 +13132,7 @@
         <v>1384348</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
@@ -12953,7 +13149,7 @@
         <v>3652122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>982</v>
       </c>
@@ -12977,8 +13173,14 @@
       <c r="I10" s="11" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="J10" s="12">
+        <v>2283858</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2152852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
@@ -12988,8 +13190,14 @@
       <c r="I11" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="J11" s="12">
+        <v>1321329</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1348182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
@@ -12999,8 +13207,14 @@
       <c r="I12" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="105" x14ac:dyDescent="0.2">
+      <c r="J12" s="12">
+        <v>2700838</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2669340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.2">
       <c r="G13" s="15" t="s">
         <v>985</v>
       </c>
@@ -13010,8 +13224,14 @@
       <c r="I13" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.2">
+      <c r="J13" s="12">
+        <v>2056278</v>
+      </c>
+      <c r="K13" s="12">
+        <v>2064833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G14" s="15" t="s">
         <v>986</v>
       </c>
@@ -13022,7 +13242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="135" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.2">
       <c r="G15" s="15" t="s">
         <v>888</v>
       </c>
@@ -13030,7 +13250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>987</v>
       </c>
@@ -13051,9 +13271,14 @@
       <c r="I16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+      <c r="J16" s="15">
+        <v>1298692</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1312867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>988</v>
       </c>
@@ -13079,8 +13304,17 @@
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J17" s="12">
+        <v>66</v>
+      </c>
+      <c r="K17" s="12">
+        <v>30750</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G18" s="11" t="s">
         <v>58</v>
       </c>
@@ -13090,8 +13324,17 @@
       <c r="I18" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>27919</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G19" s="11" t="s">
         <v>61</v>
       </c>
@@ -13101,8 +13344,11 @@
       <c r="I19" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="L19" s="12" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G20" s="11" t="s">
         <v>64</v>
       </c>
@@ -13112,8 +13358,11 @@
       <c r="I20" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="L20" s="12" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G21" s="11" t="s">
         <v>66</v>
       </c>
@@ -13123,8 +13372,11 @@
       <c r="I21" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="L21" s="12" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
@@ -13134,8 +13386,11 @@
       <c r="I22" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="L22" s="12" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G23" s="11" t="s">
         <v>70</v>
       </c>
@@ -13145,8 +13400,11 @@
       <c r="I23" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="L23" s="12" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.2">
       <c r="G24" s="11" t="s">
         <v>73</v>
       </c>
@@ -13156,8 +13414,17 @@
       <c r="I24" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J24" s="12">
+        <v>6586</v>
+      </c>
+      <c r="K24" s="12">
+        <v>37135</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G25" s="11" t="s">
         <v>78</v>
       </c>
@@ -13168,7 +13435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G26" s="11" t="s">
         <v>81</v>
       </c>
@@ -13178,8 +13445,17 @@
       <c r="I26" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="J26" s="12">
+        <v>4280</v>
+      </c>
+      <c r="K26" s="12">
+        <v>29618</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="G27" s="11" t="s">
         <v>84</v>
       </c>
@@ -13189,8 +13465,17 @@
       <c r="I27" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J27" s="12">
+        <v>5646</v>
+      </c>
+      <c r="K27" s="12">
+        <v>38110</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G28" s="11" t="s">
         <v>88</v>
       </c>
@@ -13200,8 +13485,17 @@
       <c r="I28" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="J28" s="12">
+        <v>36933</v>
+      </c>
+      <c r="K28" s="12">
+        <v>40436</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>989</v>
       </c>
@@ -13225,8 +13519,17 @@
       <c r="I29" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J29" s="12">
+        <v>1394073</v>
+      </c>
+      <c r="K29" s="12">
+        <v>1404574</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>991</v>
       </c>
@@ -13250,8 +13553,17 @@
       <c r="I30" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J30" s="12">
+        <v>578022</v>
+      </c>
+      <c r="K30" s="12">
+        <v>584879</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>992</v>
       </c>
@@ -13269,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>993</v>
       </c>
@@ -13285,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>994</v>
       </c>
@@ -13301,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>995</v>
       </c>
@@ -13317,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>996</v>
       </c>
@@ -13341,8 +13653,17 @@
       <c r="I35" s="15" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J35" s="12">
+        <v>2994400</v>
+      </c>
+      <c r="K35" s="12">
+        <v>3002739</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>998</v>
       </c>
@@ -13358,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>999</v>
       </c>
@@ -13382,8 +13703,11 @@
       <c r="I37" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L37" s="12" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>1001</v>
       </c>
@@ -13399,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>1002</v>
       </c>
@@ -13415,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>1003</v>
       </c>
@@ -13431,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>1004</v>
       </c>
@@ -13447,7 +13771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>1005</v>
       </c>
@@ -13471,8 +13795,17 @@
       <c r="I42" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J42" s="12">
+        <v>1277643</v>
+      </c>
+      <c r="K42" s="12">
+        <v>1346789</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G43" s="11" t="s">
         <v>123</v>
       </c>
@@ -13482,8 +13815,17 @@
       <c r="I43" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J43" s="12">
+        <v>2024020</v>
+      </c>
+      <c r="K43" s="12">
+        <v>2073956</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>1006</v>
       </c>
@@ -13507,8 +13849,17 @@
       <c r="I44" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J44" s="12">
+        <v>1298199</v>
+      </c>
+      <c r="K44" s="12">
+        <v>1327800</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>1007</v>
       </c>
@@ -13529,16 +13880,34 @@
       <c r="I45" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J45" s="12">
+        <v>1138054</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1181003</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G46" s="11" t="s">
         <v>133</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J46" s="12">
+        <v>1663821</v>
+      </c>
+      <c r="K46" s="12">
+        <v>1696272</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G47" s="11" t="s">
         <v>135</v>
       </c>
@@ -13548,8 +13917,17 @@
       <c r="I47" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="12">
+        <v>2242455</v>
+      </c>
+      <c r="K47" s="12">
+        <v>2281387</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>1009</v>
       </c>
@@ -13573,8 +13951,17 @@
       <c r="I48" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="24">
+        <v>79518</v>
+      </c>
+      <c r="K48" s="24">
+        <v>116151</v>
+      </c>
+      <c r="L48" s="24" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G49" s="21" t="s">
         <v>142</v>
       </c>
@@ -13584,8 +13971,17 @@
       <c r="I49" s="21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J49" s="20">
+        <v>518499</v>
+      </c>
+      <c r="K49" s="20">
+        <v>547679</v>
+      </c>
+      <c r="L49" s="20" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>1010</v>
       </c>
@@ -13611,8 +14007,17 @@
       <c r="I50" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J50" s="12">
+        <v>263328</v>
+      </c>
+      <c r="K50" s="12">
+        <v>297096</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G51" s="11" t="s">
         <v>149</v>
       </c>
@@ -13622,8 +14027,14 @@
       <c r="I51" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J51" s="12">
+        <v>564815</v>
+      </c>
+      <c r="K51" s="12">
+        <v>585633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G52" s="11" t="s">
         <v>1013</v>
       </c>
@@ -13633,8 +14044,14 @@
       <c r="I52" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="J52" s="12">
+        <v>807281</v>
+      </c>
+      <c r="K52" s="12">
+        <v>807433</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="G53" s="11" t="s">
         <v>155</v>
       </c>
@@ -13644,8 +14061,14 @@
       <c r="I53" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="J53" s="12">
+        <v>1196867</v>
+      </c>
+      <c r="K53" s="12">
+        <v>1211179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.2">
       <c r="G54" s="11" t="s">
         <v>159</v>
       </c>
@@ -13655,8 +14078,14 @@
       <c r="I54" s="11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J54" s="12">
+        <v>1412000</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1434224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G55" s="11" t="s">
         <v>163</v>
       </c>
@@ -13666,8 +14095,14 @@
       <c r="I55" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J55" s="12">
+        <v>1633072</v>
+      </c>
+      <c r="K55" s="12">
+        <v>1652708</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G56" s="11" t="s">
         <v>166</v>
       </c>
@@ -13677,8 +14112,14 @@
       <c r="I56" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J56" s="12">
+        <v>2066305</v>
+      </c>
+      <c r="K56" s="12">
+        <v>2078134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G57" s="11" t="s">
         <v>976</v>
       </c>
@@ -13688,8 +14129,14 @@
       <c r="I57" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J57" s="12">
+        <v>2167302</v>
+      </c>
+      <c r="K57" s="12">
+        <v>2167820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G58" s="11" t="s">
         <v>1017</v>
       </c>
@@ -13699,8 +14146,14 @@
       <c r="I58" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="150" x14ac:dyDescent="0.2">
+      <c r="J58" s="12">
+        <v>2466545</v>
+      </c>
+      <c r="K58" s="12">
+        <v>2476178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="G59" s="11" t="s">
         <v>1019</v>
       </c>
@@ -13710,8 +14163,14 @@
       <c r="I59" s="11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J59" s="12">
+        <v>2558858</v>
+      </c>
+      <c r="K59" s="12">
+        <v>2565332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G60" s="11" t="s">
         <v>179</v>
       </c>
@@ -13721,18 +14180,24 @@
       <c r="I60" s="11" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="12">
+        <v>2756159</v>
+      </c>
+      <c r="K60" s="12">
+        <v>2777782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H61" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="H62" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>183</v>
       </c>
@@ -13747,7 +14212,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G64" s="11" t="s">
         <v>1022</v>
       </c>
@@ -13757,8 +14222,14 @@
       <c r="I64" s="11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J64" s="12">
+        <v>2006156</v>
+      </c>
+      <c r="K64" s="12">
+        <v>2012351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G65" s="12" t="s">
         <v>1023</v>
       </c>
@@ -13768,8 +14239,14 @@
       <c r="I65" s="15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+      <c r="J65" s="12">
+        <v>4496750</v>
+      </c>
+      <c r="K65" s="12">
+        <v>4497940</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>1152</v>
       </c>
@@ -13793,8 +14270,17 @@
       <c r="I66" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="12">
+        <v>300073</v>
+      </c>
+      <c r="K66" s="12">
+        <v>310239</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
         <v>197</v>
       </c>
@@ -13804,8 +14290,14 @@
       <c r="I67" s="11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J67" s="12">
+        <v>310807</v>
+      </c>
+      <c r="K67" s="12">
+        <v>322981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
         <v>200</v>
       </c>
@@ -13815,8 +14307,14 @@
       <c r="I68" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J68" s="12">
+        <v>890967</v>
+      </c>
+      <c r="K68" s="12">
+        <v>928134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
         <v>203</v>
       </c>
@@ -13826,8 +14324,14 @@
       <c r="I69" s="11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J69" s="12">
+        <v>1248629</v>
+      </c>
+      <c r="K69" s="12">
+        <v>1298305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G70" s="15" t="s">
         <v>206</v>
       </c>
@@ -13837,8 +14341,14 @@
       <c r="I70" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="J70" s="12">
+        <v>1333512</v>
+      </c>
+      <c r="K70" s="12">
+        <v>1394578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="G71" s="11" t="s">
         <v>209</v>
       </c>
@@ -13848,8 +14358,14 @@
       <c r="I71" s="11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J71" s="12">
+        <v>1629367</v>
+      </c>
+      <c r="K71" s="12">
+        <v>1675087</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
         <v>213</v>
       </c>
@@ -13859,16 +14375,29 @@
       <c r="I72" s="11" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J72" s="12">
+        <v>1680329</v>
+      </c>
+      <c r="K72" s="12">
+        <v>1695046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="H73" s="11"/>
+      <c r="I73" s="11" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="210" x14ac:dyDescent="0.2">
+      <c r="J73" s="12">
+        <v>1703788</v>
+      </c>
+      <c r="K73" s="12">
+        <v>1728559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="210" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
         <v>1026</v>
       </c>
@@ -13878,8 +14407,14 @@
       <c r="I74" s="15" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="12">
+        <v>1656879</v>
+      </c>
+      <c r="K74" s="12">
+        <v>1270491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
         <v>1027</v>
       </c>
@@ -13889,8 +14424,14 @@
       <c r="I75" s="11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="12">
+        <v>1842735</v>
+      </c>
+      <c r="K75" s="12">
+        <v>1892291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
         <v>1029</v>
       </c>
@@ -13900,8 +14441,14 @@
       <c r="I76" s="11" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J76" s="12">
+        <v>1892402</v>
+      </c>
+      <c r="K76" s="12">
+        <v>1272058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
         <v>227</v>
       </c>
@@ -13912,7 +14459,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
         <v>1031</v>
       </c>
@@ -13923,7 +14470,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G79" s="11" t="s">
         <v>234</v>
       </c>
@@ -13934,7 +14481,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="105" x14ac:dyDescent="0.2">
       <c r="G80" s="11" t="s">
         <v>237</v>
       </c>
@@ -14168,7 +14715,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -14183,7 +14730,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
@@ -14198,7 +14745,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -14213,7 +14760,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -14228,7 +14775,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
@@ -14243,7 +14790,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
@@ -14258,7 +14805,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
@@ -14273,7 +14820,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -14288,7 +14835,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
         <v>1184</v>
       </c>
@@ -14314,8 +14861,17 @@
       <c r="I105" s="15" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="12">
+        <v>627163</v>
+      </c>
+      <c r="K105" s="12">
+        <v>630053</v>
+      </c>
+      <c r="L105" s="12" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G106" s="15" t="s">
         <v>1037</v>
       </c>
@@ -14325,8 +14881,14 @@
       <c r="I106" s="15" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J106" s="12">
+        <v>909332</v>
+      </c>
+      <c r="K106" s="12">
+        <v>942273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G107" s="15" t="s">
         <v>1039</v>
       </c>
@@ -14336,8 +14898,14 @@
       <c r="I107" s="15" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="12">
+        <v>1169669</v>
+      </c>
+      <c r="K107" s="12">
+        <v>1228729</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G108" s="15" t="s">
         <v>1041</v>
       </c>
@@ -14347,8 +14915,14 @@
       <c r="I108" s="15" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="12">
+        <v>1327053</v>
+      </c>
+      <c r="K108" s="12">
+        <v>1372820</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G109" s="15" t="s">
         <v>328</v>
       </c>
@@ -14356,8 +14930,14 @@
       <c r="I109" s="15" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="12">
+        <v>1377930</v>
+      </c>
+      <c r="K109" s="12">
+        <v>1389209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G110" s="15" t="s">
         <v>1043</v>
       </c>
@@ -14367,8 +14947,14 @@
       <c r="I110" s="15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="12">
+        <v>1397370</v>
+      </c>
+      <c r="K110" s="12">
+        <v>1452231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G111" s="15" t="s">
         <v>1044</v>
       </c>
@@ -14378,8 +14964,14 @@
       <c r="I111" s="15" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J111" s="12">
+        <v>3019963</v>
+      </c>
+      <c r="K111" s="12">
+        <v>3065315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G112" s="15" t="s">
         <v>1045</v>
       </c>
@@ -14389,8 +14981,14 @@
       <c r="I112" s="15" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J112" s="12">
+        <v>4923133</v>
+      </c>
+      <c r="K112" s="12">
+        <v>4929628</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>1186</v>
       </c>
@@ -14406,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>1187</v>
       </c>
@@ -14430,8 +15028,17 @@
       <c r="I114" s="11" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="J114" s="12">
+        <v>1559962</v>
+      </c>
+      <c r="K114" s="12">
+        <v>1594275</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="G115" s="11" t="s">
         <v>1188</v>
       </c>
@@ -14441,8 +15048,14 @@
       <c r="I115" s="11" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J115" s="12">
+        <v>1499076</v>
+      </c>
+      <c r="K115" s="12">
+        <v>1513073</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G116" s="11" t="s">
         <v>348</v>
       </c>
@@ -14452,8 +15065,14 @@
       <c r="I116" s="11" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J116" s="12">
+        <v>1636791</v>
+      </c>
+      <c r="K116" s="12">
+        <v>1638288</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>1189</v>
       </c>
@@ -14469,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>1190</v>
       </c>
@@ -14485,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>1191</v>
       </c>
@@ -14509,8 +15128,17 @@
       <c r="I119" s="11" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J119" s="12">
+        <v>35516</v>
+      </c>
+      <c r="K119" s="12">
+        <v>49727</v>
+      </c>
+      <c r="L119" s="12" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G120" s="11" t="s">
         <v>357</v>
       </c>
@@ -14520,8 +15148,14 @@
       <c r="I120" s="11" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J120" s="12">
+        <v>447236</v>
+      </c>
+      <c r="K120" s="12">
+        <v>483244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G121" s="11" t="s">
         <v>360</v>
       </c>
@@ -14531,8 +15165,14 @@
       <c r="I121" s="11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J121" s="12">
+        <v>502723</v>
+      </c>
+      <c r="K121" s="12">
+        <v>513742</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G122" s="11" t="s">
         <v>363</v>
       </c>
@@ -14542,8 +15182,14 @@
       <c r="I122" s="11" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J122" s="12">
+        <v>1036642</v>
+      </c>
+      <c r="K122" s="12">
+        <v>1070479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G123" s="11" t="s">
         <v>366</v>
       </c>
@@ -14553,8 +15199,14 @@
       <c r="I123" s="11" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J123" s="12">
+        <v>1414112</v>
+      </c>
+      <c r="K123" s="12">
+        <v>1456949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G124" s="11" t="s">
         <v>369</v>
       </c>
@@ -14564,8 +15216,14 @@
       <c r="I124" s="11" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="J124" s="12">
+        <v>2013685</v>
+      </c>
+      <c r="K124" s="12">
+        <v>2025635</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="289" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>1192</v>
       </c>
@@ -14591,8 +15249,17 @@
       <c r="I125" s="11" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J125" s="12">
+        <v>78505</v>
+      </c>
+      <c r="K125" s="12">
+        <v>114250</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G126" s="15" t="s">
         <v>376</v>
       </c>
@@ -14602,8 +15269,14 @@
       <c r="I126" s="15" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J126" s="12">
+        <v>155931</v>
+      </c>
+      <c r="K126" s="12">
+        <v>166661</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G127" s="15" t="s">
         <v>378</v>
       </c>
@@ -14613,8 +15286,14 @@
       <c r="I127" s="15" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J127" s="12">
+        <v>1246563</v>
+      </c>
+      <c r="K127" s="12">
+        <v>1294235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G128" s="15" t="s">
         <v>381</v>
       </c>
@@ -14624,8 +15303,14 @@
       <c r="I128" s="15" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J128" s="12">
+        <v>1713958</v>
+      </c>
+      <c r="K128" s="12">
+        <v>1762089</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G129" s="15" t="s">
         <v>385</v>
       </c>
@@ -14635,8 +15320,14 @@
       <c r="I129" s="15" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J129" s="12">
+        <v>2407382</v>
+      </c>
+      <c r="K129" s="12">
+        <v>2445891</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G130" s="15" t="s">
         <v>388</v>
       </c>
@@ -14646,8 +15337,14 @@
       <c r="I130" s="15" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J130" s="12">
+        <v>2591482</v>
+      </c>
+      <c r="K130" s="12">
+        <v>2625807</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>1195</v>
       </c>
@@ -14671,8 +15368,17 @@
       <c r="I131" s="11" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J131" s="12">
+        <v>120654</v>
+      </c>
+      <c r="K131" s="12">
+        <v>131380</v>
+      </c>
+      <c r="L131" s="12" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G132" s="11" t="s">
         <v>394</v>
       </c>
@@ -14682,8 +15388,14 @@
       <c r="I132" s="11" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J132" s="12">
+        <v>2361897</v>
+      </c>
+      <c r="K132" s="12">
+        <v>2400243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>1197</v>
       </c>
@@ -14704,16 +15416,20 @@
       <c r="I133" s="11" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="L133" s="12" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G134" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="H134" s="11" t="s">
+      <c r="H134" s="11"/>
+      <c r="I134" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G135" s="11" t="s">
         <v>402</v>
       </c>
@@ -14721,7 +15437,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G136" s="11"/>
       <c r="H136" s="26" t="s">
         <v>1052</v>
@@ -14730,7 +15446,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H137" s="27" t="s">
         <v>1053</v>
       </c>
@@ -14738,7 +15454,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>410</v>
       </c>
@@ -14754,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>1198</v>
       </c>
@@ -14778,19 +15494,31 @@
       <c r="I139" s="11" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J139" s="12">
+        <v>1780643</v>
+      </c>
+      <c r="K139" s="12">
+        <v>1788505</v>
+      </c>
+      <c r="L139" s="12" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G140" s="11" t="s">
         <v>1200</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="J140" s="11" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J140" s="11">
+        <v>2970551</v>
+      </c>
+      <c r="K140" s="12">
+        <v>2981576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>1201</v>
       </c>
@@ -14814,8 +15542,17 @@
       <c r="I141" s="11" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J141" s="12">
+        <v>2966695</v>
+      </c>
+      <c r="K141" s="12">
+        <v>2975604</v>
+      </c>
+      <c r="L141" s="11" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G142" s="11" t="s">
         <v>421</v>
       </c>
@@ -14825,8 +15562,14 @@
       <c r="I142" s="11" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J142" s="12">
+        <v>3872998</v>
+      </c>
+      <c r="K142" s="12">
+        <v>3879375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>1204</v>
       </c>
@@ -14842,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>1205</v>
       </c>
@@ -14858,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>1206</v>
       </c>
@@ -14874,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>1207</v>
       </c>
@@ -14890,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>1208</v>
       </c>
@@ -14914,8 +15657,17 @@
       <c r="I147" s="11" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J147" s="12">
+        <v>1099910</v>
+      </c>
+      <c r="K147" s="12">
+        <v>1133980</v>
+      </c>
+      <c r="L147" s="12" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G148" s="11" t="s">
         <v>1056</v>
       </c>
@@ -14925,8 +15677,14 @@
       <c r="I148" s="11" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J148" s="12">
+        <v>1001560</v>
+      </c>
+      <c r="K148" s="12">
+        <v>1005455</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G149" s="11"/>
       <c r="H149" s="11" t="s">
         <v>1209</v>
@@ -14934,8 +15692,14 @@
       <c r="I149" s="11" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J149" s="12">
+        <v>1600909</v>
+      </c>
+      <c r="K149" s="12">
+        <v>1698334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>1210</v>
       </c>
@@ -14959,8 +15723,17 @@
       <c r="I150" s="11" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J150" s="12">
+        <v>1768546</v>
+      </c>
+      <c r="K150" s="12">
+        <v>1807515</v>
+      </c>
+      <c r="L150" s="11" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G151" s="11" t="s">
         <v>439</v>
       </c>
@@ -14970,8 +15743,14 @@
       <c r="I151" s="11" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J151" s="12">
+        <v>1207797</v>
+      </c>
+      <c r="K151" s="12">
+        <v>1216967</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G152" s="11" t="s">
         <v>442</v>
       </c>
@@ -14981,1436 +15760,2076 @@
       <c r="I152" s="11" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J152" s="12">
+        <v>1131796</v>
+      </c>
+      <c r="K152" s="12">
+        <v>1138899</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="H153" s="11" t="s">
         <v>445</v>
       </c>
       <c r="I153" s="11" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J153" s="12">
+        <v>1153080</v>
+      </c>
+      <c r="K153" s="12">
+        <v>1164217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="H154" s="11" t="s">
         <v>1211</v>
       </c>
       <c r="I154" s="11" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-    </row>
-    <row r="156" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J154" s="12">
+        <v>1937519</v>
+      </c>
+      <c r="K154" s="12">
+        <v>1938553</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A155" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E155" s="14"/>
+      <c r="F155" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="14" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E156" s="14"/>
+        <v>1116</v>
+      </c>
+      <c r="E156" s="13"/>
       <c r="F156" s="11">
+        <v>1</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="J156" s="12">
+        <v>226976</v>
+      </c>
+      <c r="K156" s="12">
+        <v>239888</v>
+      </c>
+      <c r="L156" s="12" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A157" s="16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B157" s="16"/>
+      <c r="C157" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E157" s="14"/>
+      <c r="F157" s="15">
+        <v>1</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="J157" s="12">
+        <v>1994906</v>
+      </c>
+      <c r="K157" s="12">
+        <v>2006460</v>
+      </c>
+      <c r="L157" s="12" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="G158" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="H158" s="15" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I158" s="15" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J158" s="15">
+        <v>321193</v>
+      </c>
+      <c r="K158" s="12">
+        <v>323638</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E159" s="14"/>
+      <c r="F159" s="11">
+        <v>2</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="J159" s="12">
+        <v>672777</v>
+      </c>
+      <c r="K159" s="12">
+        <v>689221</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G160" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I160" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="J160" s="12">
+        <v>689537</v>
+      </c>
+      <c r="K160" s="12">
+        <v>702529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="H161" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="J161" s="12">
+        <v>788253</v>
+      </c>
+      <c r="K161" s="12">
+        <v>796776</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A162" s="13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E162" s="14"/>
+      <c r="F162" s="11">
+        <v>4</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="J162" s="12">
+        <v>1738086</v>
+      </c>
+      <c r="K162" s="12">
+        <v>1774809</v>
+      </c>
+      <c r="L162" s="11" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G163" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="J163" s="12">
+        <v>2586636</v>
+      </c>
+      <c r="K163" s="12">
+        <v>2625822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G164" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="J164" s="12">
+        <v>3418570</v>
+      </c>
+      <c r="K164" s="12">
+        <v>3447238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G165" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="J165" s="12">
+        <v>4372987</v>
+      </c>
+      <c r="K165" s="12">
+        <v>4427416</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A166" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E166" s="14"/>
+      <c r="F166" s="11">
+        <v>8</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="J166" s="12">
+        <v>879632</v>
+      </c>
+      <c r="K166" s="12">
+        <v>939437</v>
+      </c>
+      <c r="L166" s="12" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G167" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J167" s="12">
+        <v>1003644</v>
+      </c>
+      <c r="K167" s="12">
+        <v>1018473</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G168" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="J168" s="12">
+        <v>1591303</v>
+      </c>
+      <c r="K168" s="12">
+        <v>1598986</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G169" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J169" s="12">
+        <v>1781995</v>
+      </c>
+      <c r="K169" s="12">
+        <v>1823875</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G170" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I170" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="J170" s="12">
+        <v>2049291</v>
+      </c>
+      <c r="K170" s="12">
+        <v>2056036</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="225" x14ac:dyDescent="0.2">
+      <c r="G171" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I171" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="J171" s="12">
+        <v>2084602</v>
+      </c>
+      <c r="K171" s="12">
+        <v>2122484</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G172" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H172" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="I172" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="J172" s="12">
+        <v>2684129</v>
+      </c>
+      <c r="K172" s="12">
+        <v>2695788</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G173" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I173" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="J173" s="12">
+        <v>3486521</v>
+      </c>
+      <c r="K173" s="12">
+        <v>3505550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G174" s="11"/>
+      <c r="H174" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I174" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="J174" s="12">
+        <v>57356</v>
+      </c>
+      <c r="K174" s="12">
+        <v>58345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H175" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="J175" s="12">
+        <v>3456925</v>
+      </c>
+      <c r="K175" s="12">
+        <v>3457386</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A176" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E176" s="14"/>
+      <c r="F176" s="11">
+        <v>1</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="I176" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="J176" s="12">
+        <v>483530</v>
+      </c>
+      <c r="K176" s="12">
+        <v>485297</v>
+      </c>
+      <c r="L176" s="12" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="H177" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="J177" s="12">
+        <v>700293</v>
+      </c>
+      <c r="K177" s="12">
+        <v>700472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A178" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E178" s="14"/>
+      <c r="F178" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="14" t="s">
-        <v>934</v>
-      </c>
-      <c r="D157" s="14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E157" s="13"/>
-      <c r="F157" s="11">
-        <v>1</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A158" s="16" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E158" s="14"/>
-      <c r="F158" s="15">
-        <v>1</v>
-      </c>
-      <c r="G158" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="H158" s="15" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I158" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="G159" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>1217</v>
-      </c>
-      <c r="I159" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="J159" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="14" t="s">
-        <v>936</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="11">
-        <v>2</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="H160" s="11" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I160" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G161" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="H162" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B163" s="13"/>
-      <c r="C163" s="14" t="s">
-        <v>937</v>
-      </c>
-      <c r="D163" s="14" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E163" s="14"/>
-      <c r="F163" s="11">
-        <v>4</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H163" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="I163" s="11" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G164" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="H164" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="G165" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="H165" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G166" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A167" s="13" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="14" t="s">
-        <v>938</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="11">
-        <v>8</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H167" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="I167" s="11" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G168" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="H168" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="I168" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G169" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="I169" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="G170" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="H170" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G171" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="I171" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="225" x14ac:dyDescent="0.2">
-      <c r="G172" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I172" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="G173" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="I173" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="G174" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="H174" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="I174" s="11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G175" s="11"/>
-      <c r="H175" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I175" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H176" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="I176" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A177" s="13" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B177" s="13"/>
-      <c r="C177" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="D177" s="14" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E177" s="14"/>
-      <c r="F177" s="11">
-        <v>1</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="H177" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="H178" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="I178" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="14" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A180" s="13" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E180" s="14"/>
-      <c r="F180" s="11">
         <v>12</v>
       </c>
+      <c r="G179" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I179" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="J179" s="12">
+        <v>1008747</v>
+      </c>
+      <c r="K179" s="12">
+        <v>1052755</v>
+      </c>
+      <c r="L179" s="12" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A180" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
       <c r="G180" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="J180" s="12">
+        <v>1319442</v>
+      </c>
+      <c r="K180" s="12">
+        <v>1322767</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>183</v>
+        <v>533</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
       <c r="G181" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>1227</v>
+        <v>535</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A182" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
+        <v>536</v>
+      </c>
+      <c r="J181" s="12">
+        <v>1538899</v>
+      </c>
+      <c r="K181" s="12">
+        <v>1572919</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G182" s="11" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H182" s="11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="J182" s="12">
+        <v>1886747</v>
+      </c>
+      <c r="K182" s="12">
+        <v>1887913</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G183" s="11" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H183" s="11" t="s">
-        <v>538</v>
+        <v>1228</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+      <c r="J183" s="12">
+        <v>1888674</v>
+      </c>
+      <c r="K183" s="12">
+        <v>1933558</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G184" s="11" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H184" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+      <c r="J184" s="12">
+        <v>2297837</v>
+      </c>
+      <c r="K184" s="12">
+        <v>2302169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G185" s="11" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>1229</v>
+        <v>547</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+      <c r="J185" s="12">
+        <v>2461960</v>
+      </c>
+      <c r="K185" s="12">
+        <v>2465128</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G186" s="11" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H186" s="11" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="J186" s="12">
+        <v>2759156</v>
+      </c>
+      <c r="K186" s="12">
+        <v>2768771</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G187" s="11" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H187" s="11" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="J187" s="12">
+        <v>3515470</v>
+      </c>
+      <c r="K187" s="12">
+        <v>3548975</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G188" s="11" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H188" s="11" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="J188" s="12">
+        <v>4473753</v>
+      </c>
+      <c r="K188" s="12">
+        <v>4507270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G189" s="11" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H189" s="11" t="s">
-        <v>556</v>
+        <v>198</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="J189" s="12">
+        <v>4683853</v>
+      </c>
+      <c r="K189" s="12">
+        <v>4694545</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" ht="150" x14ac:dyDescent="0.2">
       <c r="G190" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H190" s="11" t="s">
-        <v>198</v>
+        <v>1230</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="150" x14ac:dyDescent="0.2">
-      <c r="G191" s="11" t="s">
-        <v>560</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="J190" s="12">
+        <v>37667</v>
+      </c>
+      <c r="K190" s="12">
+        <v>51818</v>
+      </c>
+      <c r="L190" s="12" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="H191" s="11" t="s">
-        <v>1230</v>
+        <v>566</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="J191" s="12">
+        <v>16094</v>
+      </c>
+      <c r="K191" s="12">
+        <v>17032</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="H192" s="11" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="J192" s="12">
+        <v>297748</v>
+      </c>
+      <c r="K192" s="12">
+        <v>299115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="H193" s="11" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="J193" s="12">
+        <v>2440971</v>
+      </c>
+      <c r="K193" s="12">
+        <v>2441765</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H194" s="11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H195" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="I195" s="11" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A196" s="16" t="s">
+      <c r="J194" s="12">
+        <v>4063955</v>
+      </c>
+      <c r="K194" s="12">
+        <v>4064311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="B196" s="16"/>
-      <c r="C196" s="14" t="s">
+      <c r="B195" s="16"/>
+      <c r="C195" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D195" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="E196" s="14"/>
-      <c r="F196" s="15">
+      <c r="E195" s="14"/>
+      <c r="F195" s="15">
         <v>7</v>
       </c>
+      <c r="G195" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="J195" s="12">
+        <v>962615</v>
+      </c>
+      <c r="K195" s="12">
+        <v>1006520</v>
+      </c>
+      <c r="L195" s="12" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A196" s="15"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
       <c r="G196" s="15" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H196" s="15" t="s">
         <v>576</v>
       </c>
       <c r="I196" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A197" s="15"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
+        <v>580</v>
+      </c>
+      <c r="J196" s="12">
+        <v>1098231</v>
+      </c>
+      <c r="K196" s="12">
+        <v>1143702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G197" s="15" t="s">
-        <v>579</v>
+        <v>1059</v>
       </c>
       <c r="H197" s="15" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="I197" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="J197" s="12">
+        <v>2042047</v>
+      </c>
+      <c r="K197" s="12">
+        <v>2059906</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G198" s="15" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="H198" s="15" t="s">
         <v>617</v>
       </c>
       <c r="I198" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+      <c r="J198" s="12">
+        <v>2330960</v>
+      </c>
+      <c r="K198" s="12">
+        <v>2345216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G199" s="15" t="s">
-        <v>1060</v>
+        <v>585</v>
       </c>
       <c r="H199" s="15" t="s">
-        <v>617</v>
+        <v>576</v>
       </c>
       <c r="I199" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+      <c r="J199" s="12">
+        <v>2728973</v>
+      </c>
+      <c r="K199" s="12">
+        <v>2776825</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G200" s="15" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H200" s="15" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="I200" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G201" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="H201" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="I201" s="15" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G202" s="11" t="s">
+      <c r="J200" s="12">
+        <v>2844431</v>
+      </c>
+      <c r="K200" s="12">
+        <v>2879237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G201" s="11" t="s">
         <v>1061</v>
       </c>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="J201" s="12">
+        <v>4417931</v>
+      </c>
+      <c r="K201" s="12">
+        <v>4438350</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H202" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+      <c r="J202" s="12">
+        <v>17860</v>
+      </c>
+      <c r="K202" s="12">
+        <v>19966</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H203" s="11" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="J203" s="12">
+        <v>2906456</v>
+      </c>
+      <c r="K203" s="12">
+        <v>2906923</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H204" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="J204" s="12">
+        <v>3779114</v>
+      </c>
+      <c r="K204" s="12">
+        <v>3779474</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A205" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E205" s="14"/>
+      <c r="F205" s="11">
+        <v>3</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>599</v>
+      </c>
       <c r="H205" s="11" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A206" s="13" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B206" s="13"/>
-      <c r="C206" s="14" t="s">
-        <v>943</v>
-      </c>
-      <c r="D206" s="14" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E206" s="14"/>
-      <c r="F206" s="11">
-        <v>3</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="J205" s="12">
+        <v>669361</v>
+      </c>
+      <c r="K205" s="12">
+        <v>705623</v>
+      </c>
+      <c r="L205" s="12" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G206" s="11" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H206" s="11" t="s">
         <v>600</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="J206" s="12">
+        <v>2788311</v>
+      </c>
+      <c r="K206" s="12">
+        <v>2822840</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G207" s="11" t="s">
-        <v>602</v>
+        <v>1062</v>
       </c>
       <c r="H207" s="11" t="s">
-        <v>600</v>
+        <v>1042</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+      <c r="J207" s="12">
+        <v>3075413</v>
+      </c>
+      <c r="K207" s="12">
+        <v>3126253</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A208" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B208" s="13"/>
+      <c r="C208" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E208" s="14"/>
+      <c r="F208" s="11">
+        <v>11</v>
+      </c>
       <c r="G208" s="11" t="s">
-        <v>1062</v>
+        <v>607</v>
       </c>
       <c r="H208" s="11" t="s">
-        <v>1042</v>
+        <v>608</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A209" s="13" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B209" s="13"/>
-      <c r="C209" s="14" t="s">
-        <v>944</v>
-      </c>
-      <c r="D209" s="14" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E209" s="14"/>
-      <c r="F209" s="11">
-        <v>11</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="J208" s="12">
+        <v>238841</v>
+      </c>
+      <c r="K208" s="12">
+        <v>251370</v>
+      </c>
+      <c r="L208" s="12" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G209" s="11" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H209" s="11" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="J209" s="12">
+        <v>311291</v>
+      </c>
+      <c r="K209" s="12">
+        <v>328079</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G210" s="11" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H210" s="11" t="s">
-        <v>611</v>
+        <v>1234</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+      <c r="J210" s="12">
+        <v>696659</v>
+      </c>
+      <c r="K210" s="12">
+        <v>747734</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G211" s="11" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H211" s="11" t="s">
-        <v>1234</v>
+        <v>617</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+      <c r="J211" s="12">
+        <v>899706</v>
+      </c>
+      <c r="K211" s="12">
+        <v>918668</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G212" s="11" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H212" s="11" t="s">
         <v>617</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+      <c r="J212" s="12">
+        <v>1178175</v>
+      </c>
+      <c r="K212" s="12">
+        <v>1188408</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G213" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H213" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="I213" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J213" s="12">
+        <v>1395280</v>
+      </c>
+      <c r="K213" s="12">
+        <v>1421884</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G214" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="H214" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="I213" s="11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="G214" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="H214" s="11" t="s">
-        <v>622</v>
-      </c>
       <c r="I214" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="J214" s="12">
+        <v>1578402</v>
+      </c>
+      <c r="K214" s="12">
+        <v>1580656</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G215" s="11" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="I215" s="11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+      <c r="J215" s="12">
+        <v>1919853</v>
+      </c>
+      <c r="K215" s="12">
+        <v>1942696</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G216" s="11" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H216" s="11" t="s">
         <v>627</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="J216" s="12">
+        <v>2049693</v>
+      </c>
+      <c r="K216" s="12">
+        <v>2066593</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G217" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+      <c r="J217" s="12">
+        <v>2227584</v>
+      </c>
+      <c r="K217" s="12">
+        <v>2236001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G218" s="11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H218" s="11" t="s">
         <v>617</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="G219" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
+      </c>
+      <c r="J218" s="12">
+        <v>2683558</v>
+      </c>
+      <c r="K218" s="12">
+        <v>2698943</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A219" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B219" s="13"/>
+      <c r="C219" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="D219" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="F219" s="11">
+        <v>0</v>
       </c>
       <c r="H219" s="11" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="J219" s="12">
+        <v>2175636</v>
+      </c>
+      <c r="K219" s="12">
+        <v>2177069</v>
+      </c>
+      <c r="L219" s="12" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="14" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E220" s="14" t="s">
-        <v>636</v>
-      </c>
+        <v>1128</v>
+      </c>
+      <c r="E220" s="14"/>
       <c r="F220" s="11">
-        <v>0</v>
-      </c>
-      <c r="H220" s="11" t="s">
-        <v>638</v>
+        <v>1</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H220" s="13" t="s">
+        <v>1238</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A221" s="13" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="14" t="s">
-        <v>946</v>
-      </c>
-      <c r="D221" s="14" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E221" s="14"/>
-      <c r="F221" s="11">
-        <v>1</v>
-      </c>
-      <c r="G221" s="11" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H221" s="13" t="s">
-        <v>1238</v>
+        <v>643</v>
+      </c>
+      <c r="J220" s="12">
+        <v>2005349</v>
+      </c>
+      <c r="K220" s="12">
+        <v>2049520</v>
+      </c>
+      <c r="L220" s="12" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="H221" s="11" t="s">
+        <v>646</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+      <c r="J221" s="11">
+        <v>2061935</v>
+      </c>
+      <c r="K221" s="12">
+        <v>2062504</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H222" s="11" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="J222" s="11"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+      <c r="J222" s="11">
+        <v>2739595</v>
+      </c>
+      <c r="K222" s="12">
+        <v>2741454</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A223" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B223" s="13"/>
+      <c r="C223" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E223" s="14"/>
+      <c r="F223" s="11">
+        <v>3</v>
+      </c>
+      <c r="G223" s="11" t="s">
+        <v>1240</v>
+      </c>
       <c r="H223" s="11" t="s">
-        <v>649</v>
+        <v>1241</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="J223" s="11"/>
-    </row>
-    <row r="224" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A224" s="13" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B224" s="13"/>
-      <c r="C224" s="14" t="s">
-        <v>947</v>
-      </c>
-      <c r="D224" s="14" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E224" s="14"/>
-      <c r="F224" s="11">
+        <v>654</v>
+      </c>
+      <c r="J223" s="12">
+        <v>917507</v>
+      </c>
+      <c r="K223" s="12">
+        <v>962565</v>
+      </c>
+      <c r="L223" s="12" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="G224" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I224" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="J224" s="12">
+        <v>2083515</v>
+      </c>
+      <c r="K224" s="12">
+        <v>2126110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="G225" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="I225" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="J225" s="12">
+        <v>2800117</v>
+      </c>
+      <c r="K225" s="12">
+        <v>2805168</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="H226" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="I226" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="J226" s="12">
+        <v>878043</v>
+      </c>
+      <c r="K226" s="12">
+        <v>878612</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A227" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B227" s="13"/>
+      <c r="C227" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E227" s="14"/>
+      <c r="F227" s="11">
         <v>3</v>
       </c>
-      <c r="G224" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H224" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I224" s="11" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="G225" s="11" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H225" s="11" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I225" s="11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="G226" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="H226" s="11" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="G227" s="11" t="s">
+        <v>1246</v>
+      </c>
       <c r="H227" s="11" t="s">
-        <v>661</v>
+        <v>1247</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A228" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B228" s="13"/>
-      <c r="C228" s="14" t="s">
-        <v>948</v>
-      </c>
-      <c r="D228" s="14" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E228" s="14"/>
-      <c r="F228" s="11">
-        <v>3</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="J227" s="12">
+        <v>1529381</v>
+      </c>
+      <c r="K227" s="12">
+        <v>1572992</v>
+      </c>
+      <c r="L227" s="11" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G228" s="11" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="H228" s="11" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+      <c r="J228" s="12">
+        <v>2046605</v>
+      </c>
+      <c r="K228" s="12">
+        <v>2088749</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G229" s="11" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H229" s="11" t="s">
-        <v>1249</v>
+        <v>671</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+      <c r="J229" s="12">
+        <v>2099432</v>
+      </c>
+      <c r="K229" s="12">
+        <v>2100231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A230" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B230" s="13"/>
+      <c r="C230" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E230" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F230" s="11">
+        <v>2</v>
+      </c>
       <c r="G230" s="11" t="s">
-        <v>1250</v>
+        <v>674</v>
       </c>
       <c r="H230" s="11" t="s">
-        <v>671</v>
+        <v>1234</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A231" s="13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B231" s="13"/>
-      <c r="C231" s="14" t="s">
-        <v>949</v>
-      </c>
-      <c r="D231" s="14" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E231" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="F231" s="11">
-        <v>2</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="J230" s="12">
+        <v>558254</v>
+      </c>
+      <c r="K230" s="12">
+        <v>599207</v>
+      </c>
+      <c r="L230" s="12" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G231" s="11" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H231" s="11" t="s">
         <v>1234</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+      <c r="J231" s="12">
+        <v>1833318</v>
+      </c>
+      <c r="K231" s="12">
+        <v>1867117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A232" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B232" s="13"/>
+      <c r="C232" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E232" s="14"/>
+      <c r="F232" s="11">
+        <v>0</v>
+      </c>
       <c r="G232" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="H232" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I232" s="11" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
-        <v>1252</v>
-      </c>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" s="13"/>
       <c r="B233" s="13"/>
-      <c r="C233" s="14" t="s">
-        <v>950</v>
-      </c>
-      <c r="D233" s="14" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E233" s="14"/>
-      <c r="F233" s="11">
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+    </row>
+    <row r="234" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A234" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B234" s="13"/>
+      <c r="C234" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E234" s="14"/>
+      <c r="F234" s="11">
         <v>0</v>
       </c>
-      <c r="G233" s="11" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-    </row>
-    <row r="235" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E235" s="14"/>
       <c r="F235" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E236" s="14"/>
       <c r="F236" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E237" s="14"/>
       <c r="F237" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A238" s="13" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B238" s="13"/>
-      <c r="C238" s="14" t="s">
-        <v>954</v>
-      </c>
-      <c r="D238" s="14" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E238" s="14"/>
-      <c r="F238" s="11">
         <v>4</v>
       </c>
-      <c r="G238" s="15">
+      <c r="G237" s="15">
         <v>370.1</v>
       </c>
+      <c r="H237" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="I237" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="J237" s="12">
+        <v>527565</v>
+      </c>
+      <c r="K237" s="11">
+        <v>571882</v>
+      </c>
+      <c r="L237" s="12" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G238" s="11" t="s">
+        <v>688</v>
+      </c>
       <c r="H238" s="11" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+      <c r="J238" s="12">
+        <v>778635</v>
+      </c>
+      <c r="K238" s="12">
+        <v>820593</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G239" s="11" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="H239" s="11" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="I239" s="11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="J239" s="12">
+        <v>1192849</v>
+      </c>
+      <c r="K239" s="12">
+        <v>1222544</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G240" s="11" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="H240" s="11" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="G241" s="11" t="s">
-        <v>694</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="J240" s="12">
+        <v>1773449</v>
+      </c>
+      <c r="K240" s="12">
+        <v>1782813</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H241" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="I241" s="11" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="H242" s="11" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="H243" s="11" t="s">
         <v>1063</v>
       </c>
+      <c r="I242" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="J242" s="12">
+        <v>1608022</v>
+      </c>
+      <c r="K242" s="12">
+        <v>1609060</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A243" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B243" s="13"/>
+      <c r="C243" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E243" s="14"/>
+      <c r="F243" s="11">
+        <v>5</v>
+      </c>
+      <c r="G243" s="11" t="s">
+        <v>1258</v>
+      </c>
       <c r="I243" s="11" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A244" s="13" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B244" s="13"/>
-      <c r="C244" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="D244" s="14" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E244" s="14"/>
-      <c r="F244" s="11">
-        <v>5</v>
-      </c>
-      <c r="G244" s="11" t="s">
-        <v>1258</v>
+        <v>704</v>
+      </c>
+      <c r="J243" s="12">
+        <v>293882</v>
+      </c>
+      <c r="K243" s="12">
+        <v>332714</v>
+      </c>
+      <c r="L243" s="12" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="G244" s="15" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>706</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="G245" s="15" t="s">
-        <v>1259</v>
+        <v>707</v>
+      </c>
+      <c r="J244" s="12">
+        <v>578093</v>
+      </c>
+      <c r="K244" s="12">
+        <v>618765</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="105" x14ac:dyDescent="0.2">
+      <c r="G245" s="11" t="s">
+        <v>1260</v>
       </c>
       <c r="H245" s="11" t="s">
-        <v>706</v>
+        <v>1064</v>
       </c>
       <c r="I245" s="11" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="105" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="J245" s="12">
+        <v>1041280</v>
+      </c>
+      <c r="K245" s="12">
+        <v>1087739</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="G246" s="11" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H246" s="11" t="s">
-        <v>1064</v>
+        <v>1262</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+      <c r="J246" s="12">
+        <v>1206360</v>
+      </c>
+      <c r="K246" s="12">
+        <v>1241416</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G247" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H247" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+      <c r="J247" s="12">
+        <v>1451844</v>
+      </c>
+      <c r="K247" s="12">
+        <v>1493373</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A248" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B248" s="13"/>
+      <c r="C248" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E248" s="14"/>
+      <c r="F248" s="11">
+        <v>6</v>
+      </c>
       <c r="G248" s="11" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I248" s="11" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A249" s="13" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B249" s="13"/>
-      <c r="C249" s="14" t="s">
-        <v>956</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E249" s="14"/>
-      <c r="F249" s="11">
-        <v>6</v>
-      </c>
+        <v>1265</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I248" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="J248" s="12">
+        <v>749213</v>
+      </c>
+      <c r="K248" s="12">
+        <v>788176</v>
+      </c>
+      <c r="L248" s="12" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G249" s="11" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="H249" s="11" t="s">
-        <v>1266</v>
+        <v>722</v>
       </c>
       <c r="I249" s="15" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+      <c r="J249" s="12">
+        <v>977738</v>
+      </c>
+      <c r="K249" s="12">
+        <v>1018193</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G250" s="11" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H250" s="11" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="I250" s="15" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+      <c r="J250" s="12">
+        <v>1137743</v>
+      </c>
+      <c r="K250" s="12">
+        <v>1171867</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G251" s="11" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H251" s="11" t="s">
-        <v>725</v>
+        <v>1270</v>
       </c>
       <c r="I251" s="15" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="J251" s="12">
+        <v>1230304</v>
+      </c>
+      <c r="K251" s="12">
+        <v>1271815</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G252" s="11" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>1270</v>
+        <v>731</v>
       </c>
       <c r="I252" s="15" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+      <c r="J252" s="12">
+        <v>1313282</v>
+      </c>
+      <c r="K252" s="12">
+        <v>1351250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G253" s="11" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H253" s="11" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="I253" s="15" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+      <c r="J253" s="12">
+        <v>1410725</v>
+      </c>
+      <c r="K253" s="12">
+        <v>1450458</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="A254" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B254" s="13"/>
+      <c r="C254" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E254" s="14"/>
+      <c r="F254" s="11">
+        <v>1</v>
+      </c>
       <c r="G254" s="11" t="s">
-        <v>1272</v>
+        <v>737</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="I254" s="15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>1065</v>
+      </c>
+      <c r="I254" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="J254" s="12">
+        <v>6107817</v>
+      </c>
+      <c r="K254" s="12">
+        <v>6120760</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E255" s="14"/>
       <c r="F255" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>737</v>
-      </c>
-      <c r="H255" s="11" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I255" s="11" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="14" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E256" s="14"/>
       <c r="F256" s="11">
         <v>0</v>
       </c>
-      <c r="G256" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A257" s="13" t="s">
-        <v>1275</v>
-      </c>
+      <c r="H256" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J256" s="12">
+        <v>1969474</v>
+      </c>
+      <c r="K256" s="12">
+        <v>1976686</v>
+      </c>
+      <c r="L256" s="12" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A257" s="13"/>
       <c r="B257" s="13"/>
-      <c r="C257" s="14" t="s">
-        <v>969</v>
-      </c>
-      <c r="D257" s="14" t="s">
-        <v>1141</v>
-      </c>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
       <c r="E257" s="14"/>
-      <c r="F257" s="11">
-        <v>0</v>
-      </c>
-      <c r="H257" s="11" t="s">
-        <v>743</v>
-      </c>
+      <c r="F257" s="11"/>
+      <c r="H257" s="11"/>
       <c r="I257" s="11" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>1347</v>
+      </c>
+      <c r="J257" s="12">
+        <v>2040855</v>
+      </c>
+      <c r="K257" s="12">
+        <v>2042912</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
         <v>1276</v>
       </c>
@@ -16426,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
         <v>1277</v>
       </c>
@@ -16442,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
         <v>1278</v>
       </c>
@@ -16458,7 +17877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
         <v>1279</v>
       </c>
@@ -16482,8 +17901,17 @@
       <c r="I261" s="11" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" ht="135" x14ac:dyDescent="0.2">
+      <c r="J261" s="12">
+        <v>1936827</v>
+      </c>
+      <c r="K261" s="12">
+        <v>1942032</v>
+      </c>
+      <c r="L261" s="12" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="135" x14ac:dyDescent="0.2">
       <c r="G262" s="12" t="s">
         <v>1066</v>
       </c>
@@ -16493,16 +17921,28 @@
       <c r="I262" s="11" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="J262" s="12">
+        <v>1564152</v>
+      </c>
+      <c r="K262" s="12">
+        <v>1573281</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="H263" s="11" t="s">
         <v>756</v>
       </c>
       <c r="I263" s="11" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="J263" s="12">
+        <v>548780</v>
+      </c>
+      <c r="K263" s="12">
+        <v>550021</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
         <v>1280</v>
       </c>
@@ -16516,8 +17956,11 @@
       <c r="E264" s="14" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="L264" s="12" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
         <v>1281</v>
       </c>
@@ -16542,7 +17985,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G266" s="11" t="s">
         <v>763</v>
       </c>
@@ -16553,7 +17996,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" ht="170" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
         <v>1282</v>
       </c>
@@ -16579,13 +18022,22 @@
       <c r="I267" s="11" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267" s="12">
+        <v>3523234</v>
+      </c>
+      <c r="K267" s="12">
+        <v>3560198</v>
+      </c>
+      <c r="L267" s="12" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H268" s="11" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G269" s="11" t="s">
         <v>1283</v>
       </c>
@@ -16595,8 +18047,14 @@
       <c r="I269" s="11" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J269" s="12">
+        <v>2435595</v>
+      </c>
+      <c r="K269" s="12">
+        <v>2441676</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G270" s="11" t="s">
         <v>1284</v>
       </c>
@@ -16606,8 +18064,14 @@
       <c r="I270" s="11" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="J270" s="12">
+        <v>2441850</v>
+      </c>
+      <c r="K270" s="12">
+        <v>2447920</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
         <v>1285</v>
       </c>
@@ -16631,8 +18095,17 @@
       <c r="I271" s="11" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J271" s="12">
+        <v>649044</v>
+      </c>
+      <c r="K271" s="12">
+        <v>690375</v>
+      </c>
+      <c r="L271" s="12" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G272" s="11" t="s">
         <v>782</v>
       </c>
@@ -16642,8 +18115,14 @@
       <c r="I272" s="11" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J272" s="12">
+        <v>2361812</v>
+      </c>
+      <c r="K272" s="12">
+        <v>2404268</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G273" s="11" t="s">
         <v>785</v>
       </c>
@@ -16653,8 +18132,14 @@
       <c r="I273" s="11" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J273" s="12">
+        <v>1514391</v>
+      </c>
+      <c r="K273" s="12">
+        <v>1540790</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G274" s="11" t="s">
         <v>787</v>
       </c>
@@ -16664,8 +18149,14 @@
       <c r="I274" s="11" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J274" s="12">
+        <v>1585980</v>
+      </c>
+      <c r="K274" s="12">
+        <v>1631056</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G275" s="11" t="s">
         <v>790</v>
       </c>
@@ -16675,8 +18166,14 @@
       <c r="I275" s="11" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J275" s="12">
+        <v>489619</v>
+      </c>
+      <c r="K275" s="12">
+        <v>530148</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G276" s="11" t="s">
         <v>793</v>
       </c>
@@ -16686,8 +18183,14 @@
       <c r="I276" s="11" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J276" s="12">
+        <v>2008233</v>
+      </c>
+      <c r="K276" s="12">
+        <v>2022372</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G277" s="11" t="s">
         <v>796</v>
       </c>
@@ -16697,8 +18200,14 @@
       <c r="I277" s="11" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J277" s="12">
+        <v>2177071</v>
+      </c>
+      <c r="K277" s="12">
+        <v>2183135</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G278" s="11" t="s">
         <v>799</v>
       </c>
@@ -16708,8 +18217,14 @@
       <c r="I278" s="11" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J278" s="12">
+        <v>2198032</v>
+      </c>
+      <c r="K278" s="12">
+        <v>2199117</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G279" s="11" t="s">
         <v>802</v>
       </c>
@@ -16719,8 +18234,14 @@
       <c r="I279" s="11" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J279" s="12">
+        <v>2653624</v>
+      </c>
+      <c r="K279" s="12">
+        <v>2656815</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G280" s="11" t="s">
         <v>805</v>
       </c>
@@ -16730,16 +18251,28 @@
       <c r="I280" s="11" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="J280" s="12">
+        <v>1779582</v>
+      </c>
+      <c r="K280" s="12">
+        <v>1790108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="H281" s="11" t="s">
         <v>808</v>
       </c>
       <c r="I281" s="11" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="J281" s="12">
+        <v>607242</v>
+      </c>
+      <c r="K281" s="12">
+        <v>608483</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
         <v>1287</v>
       </c>
@@ -16765,8 +18298,17 @@
       <c r="I282" s="11" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J282" s="12">
+        <v>454017</v>
+      </c>
+      <c r="K282" s="12">
+        <v>467611</v>
+      </c>
+      <c r="L282" s="12" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G283" s="11" t="s">
         <v>814</v>
       </c>
@@ -16776,8 +18318,14 @@
       <c r="I283" s="11" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J283" s="12">
+        <v>946367</v>
+      </c>
+      <c r="K283" s="12">
+        <v>951359</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G284" s="11" t="s">
         <v>817</v>
       </c>
@@ -16787,8 +18335,14 @@
       <c r="I284" s="11" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="J284" s="12">
+        <v>1117952</v>
+      </c>
+      <c r="K284" s="12">
+        <v>1142561</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G285" s="11" t="s">
         <v>819</v>
       </c>
@@ -16796,10 +18350,16 @@
         <v>820</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>1355</v>
+      </c>
+      <c r="J285" s="12">
+        <v>1161143</v>
+      </c>
+      <c r="K285" s="12">
+        <v>1217907</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G286" s="11" t="s">
         <v>822</v>
       </c>
@@ -16809,8 +18369,14 @@
       <c r="I286" s="11" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J286" s="12">
+        <v>1288547</v>
+      </c>
+      <c r="K286" s="12">
+        <v>1392763</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G287" s="11" t="s">
         <v>825</v>
       </c>
@@ -16820,8 +18386,14 @@
       <c r="I287" s="11" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="J287" s="12">
+        <v>1548922</v>
+      </c>
+      <c r="K287" s="12">
+        <v>1556451</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G288" s="11" t="s">
         <v>827</v>
       </c>
@@ -16831,16 +18403,28 @@
       <c r="I288" s="11" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J288" s="12">
+        <v>1847786</v>
+      </c>
+      <c r="K288" s="12">
+        <v>1855582</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G289" s="11" t="s">
         <v>829</v>
       </c>
       <c r="I289" s="11" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J289" s="12">
+        <v>2005731</v>
+      </c>
+      <c r="K289" s="12">
+        <v>2019519</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
         <v>1288</v>
       </c>
@@ -16864,8 +18448,17 @@
       <c r="I290" s="11" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J290" s="12">
+        <v>964013</v>
+      </c>
+      <c r="K290" s="12">
+        <v>971311</v>
+      </c>
+      <c r="L290" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G291" s="11" t="s">
         <v>836</v>
       </c>
@@ -16875,8 +18468,14 @@
       <c r="I291" s="11" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J291" s="12">
+        <v>1233128</v>
+      </c>
+      <c r="K291" s="12">
+        <v>1243405</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G292" s="11" t="s">
         <v>839</v>
       </c>
@@ -16886,8 +18485,14 @@
       <c r="I292" s="11" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J292" s="12">
+        <v>1392489</v>
+      </c>
+      <c r="K292" s="12">
+        <v>1416574</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G293" s="11" t="s">
         <v>842</v>
       </c>
@@ -16897,8 +18502,14 @@
       <c r="I293" s="11" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J293" s="12">
+        <v>2115626</v>
+      </c>
+      <c r="K293" s="12">
+        <v>2122603</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G294" s="11" t="s">
         <v>845</v>
       </c>
@@ -16908,8 +18519,14 @@
       <c r="I294" s="11" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J294" s="12">
+        <v>2364238</v>
+      </c>
+      <c r="K294" s="12">
+        <v>2413098</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G295" s="11" t="s">
         <v>848</v>
       </c>
@@ -16919,9 +18536,14 @@
       <c r="I295" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="J295" s="11"/>
-    </row>
-    <row r="296" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="J295" s="11">
+        <v>4540718</v>
+      </c>
+      <c r="K295" s="12">
+        <v>4547806</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G296" s="11" t="s">
         <v>852</v>
       </c>
@@ -16931,8 +18553,17 @@
       <c r="I296" s="11" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J296" s="12">
+        <v>2022</v>
+      </c>
+      <c r="K296" s="12">
+        <v>19777</v>
+      </c>
+      <c r="L296" s="11" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G297" s="11" t="s">
         <v>855</v>
       </c>
@@ -16942,16 +18573,28 @@
       <c r="I297" s="11" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+      <c r="J297" s="12">
+        <v>2554373</v>
+      </c>
+      <c r="K297" s="12">
+        <v>2563203</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="135" x14ac:dyDescent="0.2">
       <c r="H298" s="11" t="s">
         <v>858</v>
       </c>
       <c r="I298" s="11" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="J298" s="12">
+        <v>2607727</v>
+      </c>
+      <c r="K298" s="12">
+        <v>2608050</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
         <v>1291</v>
       </c>
@@ -16972,8 +18615,17 @@
       <c r="I299" s="11" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J299" s="12">
+        <v>2417129</v>
+      </c>
+      <c r="K299" s="12">
+        <v>2456467</v>
+      </c>
+      <c r="L299" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G300" s="11" t="s">
         <v>865</v>
       </c>
@@ -16983,8 +18635,14 @@
       <c r="I300" s="11" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="J300" s="12">
+        <v>2693615</v>
+      </c>
+      <c r="K300" s="12">
+        <v>2700576</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="G301" s="11" t="s">
         <v>868</v>
       </c>
@@ -16994,8 +18652,14 @@
       <c r="I301" s="11" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J301" s="12">
+        <v>3237524</v>
+      </c>
+      <c r="K301" s="12">
+        <v>3255252</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G302" s="11" t="s">
         <v>872</v>
       </c>
@@ -17005,8 +18669,14 @@
       <c r="I302" s="11" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="J302" s="12">
+        <v>3389461</v>
+      </c>
+      <c r="K302" s="12">
+        <v>3399754</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="G303" s="11" t="s">
         <v>874</v>
       </c>
@@ -17016,8 +18686,14 @@
       <c r="I303" s="11" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J303" s="12">
+        <v>3595030</v>
+      </c>
+      <c r="K303" s="12">
+        <v>3601343</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -17061,31 +18737,31 @@
     <hyperlink ref="C146" r:id="rId33" xr:uid="{C1E0C5E0-EC6B-184B-9C6F-19568311ADCE}"/>
     <hyperlink ref="C147" r:id="rId34" xr:uid="{EE42A319-6BBA-A942-B07C-CA0E60D686D1}"/>
     <hyperlink ref="C150" r:id="rId35" xr:uid="{8362A34E-4705-7149-ACFD-33B2AEA5435C}"/>
-    <hyperlink ref="C156" r:id="rId36" xr:uid="{C87B3D20-6134-904F-9084-DA8B5215BBCF}"/>
-    <hyperlink ref="C158" r:id="rId37" xr:uid="{CC448B47-985E-8045-B4BC-B6EF8C8CF339}"/>
-    <hyperlink ref="C160" r:id="rId38" xr:uid="{3CB0AAD5-551F-B14E-B2FF-68285BA60C14}"/>
-    <hyperlink ref="C163" r:id="rId39" xr:uid="{987AF216-1629-1340-942B-556B5DE6AFA8}"/>
-    <hyperlink ref="C167" r:id="rId40" xr:uid="{5441D9C6-B394-A14C-A961-430F913EA86D}"/>
-    <hyperlink ref="C177" r:id="rId41" xr:uid="{2F473587-C003-B342-A178-A4007917F4EA}"/>
-    <hyperlink ref="C179" r:id="rId42" xr:uid="{B0971557-D4A3-554B-9BA6-64E07B954566}"/>
-    <hyperlink ref="C180" r:id="rId43" xr:uid="{2C952DD9-82AB-9947-BEBF-1C0761F5B1A7}"/>
-    <hyperlink ref="C196" r:id="rId44" xr:uid="{C8E2FEAE-D169-484B-9C5F-EFB536F63066}"/>
-    <hyperlink ref="C206" r:id="rId45" xr:uid="{CA320283-4D47-824C-9714-711BC8D06225}"/>
-    <hyperlink ref="C209" r:id="rId46" xr:uid="{C0C55CC3-851D-A047-B07B-927871AE6A36}"/>
-    <hyperlink ref="C220" r:id="rId47" xr:uid="{0C98A7C7-9A4E-7E4A-A40E-06EF58F0C6AC}"/>
-    <hyperlink ref="C221" r:id="rId48" xr:uid="{3E0937F6-591E-5145-8E3B-D4AB316CDC34}"/>
-    <hyperlink ref="C224" r:id="rId49" xr:uid="{EF7439CE-DEAE-0944-A3DE-17015098B00F}"/>
-    <hyperlink ref="C228" r:id="rId50" xr:uid="{70C0F72B-0CB5-6149-927A-BC304695DCD8}"/>
-    <hyperlink ref="C231" r:id="rId51" xr:uid="{3F2A4912-4B2D-DC41-AB9A-83835C734CE0}"/>
-    <hyperlink ref="C233" r:id="rId52" xr:uid="{B830A365-1DEF-A841-A7B1-10EB60130750}"/>
-    <hyperlink ref="C235" r:id="rId53" xr:uid="{CC7758A7-570A-3541-A735-BC563E75AE66}"/>
-    <hyperlink ref="C236" r:id="rId54" xr:uid="{9A73FEA3-EC66-7B47-A44B-6F57D64DE48B}"/>
-    <hyperlink ref="C237" r:id="rId55" xr:uid="{D36AEB15-62F7-FE49-A04E-DF356A78B80E}"/>
-    <hyperlink ref="C238" r:id="rId56" xr:uid="{78DB477C-4CD4-5D4C-B176-88FCB3118530}"/>
-    <hyperlink ref="C244" r:id="rId57" xr:uid="{121717A1-AA81-E448-9C57-DF34ABEEAE06}"/>
-    <hyperlink ref="C249" r:id="rId58" xr:uid="{5AD4C53D-7FBC-5741-8C2C-56DD89D45D3A}"/>
-    <hyperlink ref="C255" r:id="rId59" xr:uid="{505E37F7-D11C-A94C-BE78-86AD722C0A6C}"/>
-    <hyperlink ref="C256" r:id="rId60" xr:uid="{78E4BEFC-F31F-7547-B571-3CEBF7D48462}"/>
+    <hyperlink ref="C155" r:id="rId36" xr:uid="{C87B3D20-6134-904F-9084-DA8B5215BBCF}"/>
+    <hyperlink ref="C157" r:id="rId37" xr:uid="{CC448B47-985E-8045-B4BC-B6EF8C8CF339}"/>
+    <hyperlink ref="C159" r:id="rId38" xr:uid="{3CB0AAD5-551F-B14E-B2FF-68285BA60C14}"/>
+    <hyperlink ref="C162" r:id="rId39" xr:uid="{987AF216-1629-1340-942B-556B5DE6AFA8}"/>
+    <hyperlink ref="C166" r:id="rId40" xr:uid="{5441D9C6-B394-A14C-A961-430F913EA86D}"/>
+    <hyperlink ref="C176" r:id="rId41" xr:uid="{2F473587-C003-B342-A178-A4007917F4EA}"/>
+    <hyperlink ref="C178" r:id="rId42" xr:uid="{B0971557-D4A3-554B-9BA6-64E07B954566}"/>
+    <hyperlink ref="C179" r:id="rId43" xr:uid="{2C952DD9-82AB-9947-BEBF-1C0761F5B1A7}"/>
+    <hyperlink ref="C195" r:id="rId44" xr:uid="{C8E2FEAE-D169-484B-9C5F-EFB536F63066}"/>
+    <hyperlink ref="C205" r:id="rId45" xr:uid="{CA320283-4D47-824C-9714-711BC8D06225}"/>
+    <hyperlink ref="C208" r:id="rId46" xr:uid="{C0C55CC3-851D-A047-B07B-927871AE6A36}"/>
+    <hyperlink ref="C219" r:id="rId47" xr:uid="{0C98A7C7-9A4E-7E4A-A40E-06EF58F0C6AC}"/>
+    <hyperlink ref="C220" r:id="rId48" xr:uid="{3E0937F6-591E-5145-8E3B-D4AB316CDC34}"/>
+    <hyperlink ref="C223" r:id="rId49" xr:uid="{EF7439CE-DEAE-0944-A3DE-17015098B00F}"/>
+    <hyperlink ref="C227" r:id="rId50" xr:uid="{70C0F72B-0CB5-6149-927A-BC304695DCD8}"/>
+    <hyperlink ref="C230" r:id="rId51" xr:uid="{3F2A4912-4B2D-DC41-AB9A-83835C734CE0}"/>
+    <hyperlink ref="C232" r:id="rId52" xr:uid="{B830A365-1DEF-A841-A7B1-10EB60130750}"/>
+    <hyperlink ref="C234" r:id="rId53" xr:uid="{CC7758A7-570A-3541-A735-BC563E75AE66}"/>
+    <hyperlink ref="C235" r:id="rId54" xr:uid="{9A73FEA3-EC66-7B47-A44B-6F57D64DE48B}"/>
+    <hyperlink ref="C236" r:id="rId55" xr:uid="{D36AEB15-62F7-FE49-A04E-DF356A78B80E}"/>
+    <hyperlink ref="C237" r:id="rId56" xr:uid="{78DB477C-4CD4-5D4C-B176-88FCB3118530}"/>
+    <hyperlink ref="C243" r:id="rId57" xr:uid="{121717A1-AA81-E448-9C57-DF34ABEEAE06}"/>
+    <hyperlink ref="C248" r:id="rId58" xr:uid="{5AD4C53D-7FBC-5741-8C2C-56DD89D45D3A}"/>
+    <hyperlink ref="C254" r:id="rId59" xr:uid="{505E37F7-D11C-A94C-BE78-86AD722C0A6C}"/>
+    <hyperlink ref="C255" r:id="rId60" xr:uid="{78E4BEFC-F31F-7547-B571-3CEBF7D48462}"/>
     <hyperlink ref="C299" r:id="rId61" xr:uid="{01D15D1D-4FAC-354F-9676-F25638FCB0CD}"/>
     <hyperlink ref="C290" r:id="rId62" xr:uid="{BD89CB90-CB94-9045-B2F0-072ACB5845DF}"/>
     <hyperlink ref="C282" r:id="rId63" xr:uid="{6E99F612-F366-D24D-9BB0-48E92AC581E5}"/>
@@ -17096,75 +18772,75 @@
     <hyperlink ref="C260" r:id="rId68" xr:uid="{7C3E59E2-3556-ED49-A582-F8F4F591E4E6}"/>
     <hyperlink ref="C259" r:id="rId69" xr:uid="{2BA976C0-3170-F643-AB07-44050B0E064F}"/>
     <hyperlink ref="C258" r:id="rId70" xr:uid="{B3EFEE77-C000-8E4A-A9EA-CB765E5033EC}"/>
-    <hyperlink ref="C257" r:id="rId71" xr:uid="{C2BBFD64-E4BF-8243-8377-79F448809F32}"/>
-    <hyperlink ref="C6" r:id="rId72" xr:uid="{13DEA35A-255F-1F4C-9DFB-2A1E551A416B}"/>
-    <hyperlink ref="C10" r:id="rId73" xr:uid="{240BB60E-C4B6-3343-911B-06E3E5FC1E6A}"/>
-    <hyperlink ref="C16" r:id="rId74" xr:uid="{AFF77FB9-E093-7344-AE1D-135E7CA037B6}"/>
-    <hyperlink ref="C17" r:id="rId75" xr:uid="{D94B94C5-FCB1-574F-A934-8BBB020321CF}"/>
-    <hyperlink ref="C48" r:id="rId76" xr:uid="{BD8316C1-1742-8C40-8A5D-29387B780638}"/>
-    <hyperlink ref="D2" r:id="rId77" xr:uid="{16D09DF5-1815-284E-8E1D-0436F18E9487}"/>
-    <hyperlink ref="D5" r:id="rId78" xr:uid="{7006CB40-624A-DD43-8685-6C60F98E246C}"/>
-    <hyperlink ref="D10" r:id="rId79" xr:uid="{F9527CE0-4456-7C4B-9637-DA03C24B0EBF}"/>
-    <hyperlink ref="D16" r:id="rId80" xr:uid="{60449F7F-9553-5940-97C2-DF4D9C244E8B}"/>
-    <hyperlink ref="D17" r:id="rId81" xr:uid="{B36C6913-378B-EF46-828A-9C02011D885A}"/>
-    <hyperlink ref="D29" r:id="rId82" xr:uid="{D2DE341A-5103-1C4B-A678-0A928E688109}"/>
-    <hyperlink ref="D30" r:id="rId83" xr:uid="{C685345B-F663-C746-B784-8C57717E2286}"/>
-    <hyperlink ref="D31" r:id="rId84" xr:uid="{967B1FEC-C611-FC49-B92E-7DE810C48CCE}"/>
-    <hyperlink ref="D32" r:id="rId85" xr:uid="{DC32E065-DD01-384B-AA5F-59E486D2E33C}"/>
-    <hyperlink ref="D33" r:id="rId86" xr:uid="{D610C2CA-E866-EA4A-ADB2-76C38FCD7F37}"/>
-    <hyperlink ref="D34" r:id="rId87" xr:uid="{5BDE322D-8238-ED44-924D-0D8421A7533F}"/>
-    <hyperlink ref="D35" r:id="rId88" xr:uid="{C9E3D374-A2EC-BA47-8D6F-0C2A010B9BCC}"/>
-    <hyperlink ref="D36" r:id="rId89" xr:uid="{B098DF4F-4F46-C543-A1DB-6F68CA8724A4}"/>
-    <hyperlink ref="D37" r:id="rId90" xr:uid="{31FC6D14-397F-334B-978B-566B958EECC8}"/>
-    <hyperlink ref="D40" r:id="rId91" xr:uid="{7E5893C6-FF0E-E843-87DC-49726BF07208}"/>
-    <hyperlink ref="D41" r:id="rId92" xr:uid="{9B8ED1A1-0FCA-FD44-80F6-DFAE1081424C}"/>
-    <hyperlink ref="D42" r:id="rId93" xr:uid="{17CC4145-0E14-1741-816A-8CE5A465D9B0}"/>
-    <hyperlink ref="D44" r:id="rId94" xr:uid="{FF87462A-D953-9B41-B831-FBDF533B1566}"/>
-    <hyperlink ref="D45" r:id="rId95" xr:uid="{C46C9A93-F1A4-FD4C-BDE9-917FA2C087C8}"/>
-    <hyperlink ref="D105" r:id="rId96" xr:uid="{28286984-355E-654C-8C15-D694F75E1AAE}"/>
-    <hyperlink ref="D113" r:id="rId97" xr:uid="{17E30215-C8EE-2F46-8D46-5965C633CBC6}"/>
-    <hyperlink ref="D114" r:id="rId98" xr:uid="{532FCFF2-D581-9746-822C-C595E9CF4CE2}"/>
-    <hyperlink ref="D117" r:id="rId99" xr:uid="{50CF67AE-CD30-E649-BB27-4CABBB1362D2}"/>
-    <hyperlink ref="D119" r:id="rId100" xr:uid="{6C546838-34E6-0046-9B60-75FA80843209}"/>
-    <hyperlink ref="D138" r:id="rId101" xr:uid="{609AFF12-2B3C-F947-B0D6-2216F702992F}"/>
-    <hyperlink ref="D139" r:id="rId102" xr:uid="{B57D4BCE-D47A-FA42-9313-BCDAD70A30F0}"/>
-    <hyperlink ref="D143" r:id="rId103" xr:uid="{F3AB7CB0-02A5-9648-A56E-E996BB1DD0B0}"/>
-    <hyperlink ref="D144" r:id="rId104" xr:uid="{2A127B44-3F85-B342-9E0F-DC37CF58FD84}"/>
-    <hyperlink ref="D146" r:id="rId105" xr:uid="{6F2CE29B-0996-974F-B044-F491E23A9029}"/>
-    <hyperlink ref="D147" r:id="rId106" xr:uid="{EA20DD18-1FBE-BA47-BEAD-A66B766E46C9}"/>
-    <hyperlink ref="D150" r:id="rId107" xr:uid="{A2B9319D-FA4C-094B-8205-7C8A16C1B593}"/>
-    <hyperlink ref="C157" r:id="rId108" xr:uid="{2681888B-C2D1-684C-80EA-F058C7D700DE}"/>
-    <hyperlink ref="D157" r:id="rId109" xr:uid="{1949C51D-5AA2-3F40-91CC-6B93DF6FB6E7}"/>
-    <hyperlink ref="D158" r:id="rId110" xr:uid="{CF1DE9A1-2437-5E4E-9E16-3888C876724C}"/>
-    <hyperlink ref="D160" r:id="rId111" xr:uid="{B5BF121A-1A67-2C4B-8BC4-B1AE0D044355}"/>
-    <hyperlink ref="D167" r:id="rId112" xr:uid="{E93C0F07-3640-F643-8CCF-F06441FC3A42}"/>
-    <hyperlink ref="D177" r:id="rId113" xr:uid="{3A8D6964-D608-694E-A66C-3A74C54CBD55}"/>
-    <hyperlink ref="D179" r:id="rId114" xr:uid="{E34B8F1A-28C7-E849-8D6F-F95A3902A2DE}"/>
-    <hyperlink ref="D180" r:id="rId115" xr:uid="{9BE88C91-A8E1-B144-B646-8E3D64EF240C}"/>
-    <hyperlink ref="D196" r:id="rId116" xr:uid="{CFE18F84-6205-9C44-B38F-0BB882A28FD6}"/>
-    <hyperlink ref="D206" r:id="rId117" xr:uid="{252758E4-16DF-1348-967F-22BB5A4FD465}"/>
-    <hyperlink ref="D209" r:id="rId118" xr:uid="{EEAE447D-BD37-D64E-8645-6F27891B744D}"/>
-    <hyperlink ref="D220" r:id="rId119" xr:uid="{E4E81211-B4C8-0D4D-ACDC-4776E458FDB5}"/>
-    <hyperlink ref="D221" r:id="rId120" xr:uid="{8EA111D0-742E-2F48-8812-E894C6AF7334}"/>
-    <hyperlink ref="D224" r:id="rId121" xr:uid="{5FD60D6D-6018-3948-8862-3E7D4D9AB849}"/>
-    <hyperlink ref="D228" r:id="rId122" xr:uid="{06A45C6A-304C-F046-A006-2A51AB6154F8}"/>
-    <hyperlink ref="D231" r:id="rId123" xr:uid="{40C3C8BE-03A4-7143-89CC-5E5B0427FEE3}"/>
-    <hyperlink ref="D233" r:id="rId124" xr:uid="{6FF19703-C7A5-F94B-BAD7-C82DEE5AA121}"/>
-    <hyperlink ref="D235" r:id="rId125" xr:uid="{BDC853C6-A968-194D-945D-08EBFAE57783}"/>
-    <hyperlink ref="D236" r:id="rId126" xr:uid="{2F161E82-20C1-AD48-AC41-10B4537BCA7E}"/>
-    <hyperlink ref="D244" r:id="rId127" xr:uid="{417E9AEE-6A4C-E54E-A36C-E3AB21D75544}"/>
-    <hyperlink ref="D249" r:id="rId128" xr:uid="{E98F7F5D-8F69-BC4A-B6C8-340FECA673CB}"/>
-    <hyperlink ref="D255" r:id="rId129" xr:uid="{16DD4449-7C14-C345-A534-E6CA76217322}"/>
-    <hyperlink ref="D257" r:id="rId130" xr:uid="{C4179A1B-AF1D-3C42-B66C-DAC0DD089215}"/>
-    <hyperlink ref="D259" r:id="rId131" xr:uid="{3ECC0B1B-7B49-614B-807A-E8BEC5F7982F}"/>
-    <hyperlink ref="D260" r:id="rId132" xr:uid="{A25C64D3-F9B5-2547-AC47-CDCF54754375}"/>
-    <hyperlink ref="D261" r:id="rId133" xr:uid="{5516DFF5-E4E0-4649-AF28-C955265184B8}"/>
-    <hyperlink ref="D299" r:id="rId134" xr:uid="{A4DD511D-C804-6A4B-B93C-27B400774A85}"/>
-    <hyperlink ref="D290" r:id="rId135" xr:uid="{71BA1A90-02E0-374D-A5F0-5544FD8C5E4D}"/>
-    <hyperlink ref="D282" r:id="rId136" xr:uid="{211EC35D-1287-E642-86B8-D5AEA65B48EC}"/>
-    <hyperlink ref="D271" r:id="rId137" xr:uid="{DBD5D8AB-1450-824B-8E87-DA12FD5CCE04}"/>
-    <hyperlink ref="D267" r:id="rId138" xr:uid="{B591B48A-7880-D44A-A1B9-060EF236380C}"/>
-    <hyperlink ref="D264" r:id="rId139" xr:uid="{1071C385-A451-F343-B898-B64E1641A38F}"/>
+    <hyperlink ref="C6" r:id="rId71" xr:uid="{13DEA35A-255F-1F4C-9DFB-2A1E551A416B}"/>
+    <hyperlink ref="C10" r:id="rId72" xr:uid="{240BB60E-C4B6-3343-911B-06E3E5FC1E6A}"/>
+    <hyperlink ref="C16" r:id="rId73" xr:uid="{AFF77FB9-E093-7344-AE1D-135E7CA037B6}"/>
+    <hyperlink ref="C17" r:id="rId74" xr:uid="{D94B94C5-FCB1-574F-A934-8BBB020321CF}"/>
+    <hyperlink ref="C48" r:id="rId75" xr:uid="{BD8316C1-1742-8C40-8A5D-29387B780638}"/>
+    <hyperlink ref="D2" r:id="rId76" xr:uid="{16D09DF5-1815-284E-8E1D-0436F18E9487}"/>
+    <hyperlink ref="D5" r:id="rId77" xr:uid="{7006CB40-624A-DD43-8685-6C60F98E246C}"/>
+    <hyperlink ref="D10" r:id="rId78" xr:uid="{F9527CE0-4456-7C4B-9637-DA03C24B0EBF}"/>
+    <hyperlink ref="D16" r:id="rId79" xr:uid="{60449F7F-9553-5940-97C2-DF4D9C244E8B}"/>
+    <hyperlink ref="D17" r:id="rId80" xr:uid="{B36C6913-378B-EF46-828A-9C02011D885A}"/>
+    <hyperlink ref="D29" r:id="rId81" xr:uid="{D2DE341A-5103-1C4B-A678-0A928E688109}"/>
+    <hyperlink ref="D30" r:id="rId82" xr:uid="{C685345B-F663-C746-B784-8C57717E2286}"/>
+    <hyperlink ref="D31" r:id="rId83" xr:uid="{967B1FEC-C611-FC49-B92E-7DE810C48CCE}"/>
+    <hyperlink ref="D32" r:id="rId84" xr:uid="{DC32E065-DD01-384B-AA5F-59E486D2E33C}"/>
+    <hyperlink ref="D33" r:id="rId85" xr:uid="{D610C2CA-E866-EA4A-ADB2-76C38FCD7F37}"/>
+    <hyperlink ref="D34" r:id="rId86" xr:uid="{5BDE322D-8238-ED44-924D-0D8421A7533F}"/>
+    <hyperlink ref="D35" r:id="rId87" xr:uid="{C9E3D374-A2EC-BA47-8D6F-0C2A010B9BCC}"/>
+    <hyperlink ref="D36" r:id="rId88" xr:uid="{B098DF4F-4F46-C543-A1DB-6F68CA8724A4}"/>
+    <hyperlink ref="D37" r:id="rId89" xr:uid="{31FC6D14-397F-334B-978B-566B958EECC8}"/>
+    <hyperlink ref="D40" r:id="rId90" xr:uid="{7E5893C6-FF0E-E843-87DC-49726BF07208}"/>
+    <hyperlink ref="D41" r:id="rId91" xr:uid="{9B8ED1A1-0FCA-FD44-80F6-DFAE1081424C}"/>
+    <hyperlink ref="D42" r:id="rId92" xr:uid="{17CC4145-0E14-1741-816A-8CE5A465D9B0}"/>
+    <hyperlink ref="D44" r:id="rId93" xr:uid="{FF87462A-D953-9B41-B831-FBDF533B1566}"/>
+    <hyperlink ref="D45" r:id="rId94" xr:uid="{C46C9A93-F1A4-FD4C-BDE9-917FA2C087C8}"/>
+    <hyperlink ref="D105" r:id="rId95" xr:uid="{28286984-355E-654C-8C15-D694F75E1AAE}"/>
+    <hyperlink ref="D113" r:id="rId96" xr:uid="{17E30215-C8EE-2F46-8D46-5965C633CBC6}"/>
+    <hyperlink ref="D114" r:id="rId97" xr:uid="{532FCFF2-D581-9746-822C-C595E9CF4CE2}"/>
+    <hyperlink ref="D117" r:id="rId98" xr:uid="{50CF67AE-CD30-E649-BB27-4CABBB1362D2}"/>
+    <hyperlink ref="D119" r:id="rId99" xr:uid="{6C546838-34E6-0046-9B60-75FA80843209}"/>
+    <hyperlink ref="D138" r:id="rId100" xr:uid="{609AFF12-2B3C-F947-B0D6-2216F702992F}"/>
+    <hyperlink ref="D139" r:id="rId101" xr:uid="{B57D4BCE-D47A-FA42-9313-BCDAD70A30F0}"/>
+    <hyperlink ref="D143" r:id="rId102" xr:uid="{F3AB7CB0-02A5-9648-A56E-E996BB1DD0B0}"/>
+    <hyperlink ref="D144" r:id="rId103" xr:uid="{2A127B44-3F85-B342-9E0F-DC37CF58FD84}"/>
+    <hyperlink ref="D146" r:id="rId104" xr:uid="{6F2CE29B-0996-974F-B044-F491E23A9029}"/>
+    <hyperlink ref="D147" r:id="rId105" xr:uid="{EA20DD18-1FBE-BA47-BEAD-A66B766E46C9}"/>
+    <hyperlink ref="D150" r:id="rId106" xr:uid="{A2B9319D-FA4C-094B-8205-7C8A16C1B593}"/>
+    <hyperlink ref="C156" r:id="rId107" xr:uid="{2681888B-C2D1-684C-80EA-F058C7D700DE}"/>
+    <hyperlink ref="D156" r:id="rId108" xr:uid="{1949C51D-5AA2-3F40-91CC-6B93DF6FB6E7}"/>
+    <hyperlink ref="D157" r:id="rId109" xr:uid="{CF1DE9A1-2437-5E4E-9E16-3888C876724C}"/>
+    <hyperlink ref="D159" r:id="rId110" xr:uid="{B5BF121A-1A67-2C4B-8BC4-B1AE0D044355}"/>
+    <hyperlink ref="D166" r:id="rId111" xr:uid="{E93C0F07-3640-F643-8CCF-F06441FC3A42}"/>
+    <hyperlink ref="D176" r:id="rId112" xr:uid="{3A8D6964-D608-694E-A66C-3A74C54CBD55}"/>
+    <hyperlink ref="D178" r:id="rId113" xr:uid="{E34B8F1A-28C7-E849-8D6F-F95A3902A2DE}"/>
+    <hyperlink ref="D179" r:id="rId114" xr:uid="{9BE88C91-A8E1-B144-B646-8E3D64EF240C}"/>
+    <hyperlink ref="D195" r:id="rId115" xr:uid="{CFE18F84-6205-9C44-B38F-0BB882A28FD6}"/>
+    <hyperlink ref="D205" r:id="rId116" xr:uid="{252758E4-16DF-1348-967F-22BB5A4FD465}"/>
+    <hyperlink ref="D208" r:id="rId117" xr:uid="{EEAE447D-BD37-D64E-8645-6F27891B744D}"/>
+    <hyperlink ref="D219" r:id="rId118" xr:uid="{E4E81211-B4C8-0D4D-ACDC-4776E458FDB5}"/>
+    <hyperlink ref="D220" r:id="rId119" xr:uid="{8EA111D0-742E-2F48-8812-E894C6AF7334}"/>
+    <hyperlink ref="D223" r:id="rId120" xr:uid="{5FD60D6D-6018-3948-8862-3E7D4D9AB849}"/>
+    <hyperlink ref="D227" r:id="rId121" xr:uid="{06A45C6A-304C-F046-A006-2A51AB6154F8}"/>
+    <hyperlink ref="D230" r:id="rId122" xr:uid="{40C3C8BE-03A4-7143-89CC-5E5B0427FEE3}"/>
+    <hyperlink ref="D232" r:id="rId123" xr:uid="{6FF19703-C7A5-F94B-BAD7-C82DEE5AA121}"/>
+    <hyperlink ref="D234" r:id="rId124" xr:uid="{BDC853C6-A968-194D-945D-08EBFAE57783}"/>
+    <hyperlink ref="D235" r:id="rId125" xr:uid="{2F161E82-20C1-AD48-AC41-10B4537BCA7E}"/>
+    <hyperlink ref="D243" r:id="rId126" xr:uid="{417E9AEE-6A4C-E54E-A36C-E3AB21D75544}"/>
+    <hyperlink ref="D248" r:id="rId127" xr:uid="{E98F7F5D-8F69-BC4A-B6C8-340FECA673CB}"/>
+    <hyperlink ref="D254" r:id="rId128" xr:uid="{16DD4449-7C14-C345-A534-E6CA76217322}"/>
+    <hyperlink ref="D259" r:id="rId129" xr:uid="{3ECC0B1B-7B49-614B-807A-E8BEC5F7982F}"/>
+    <hyperlink ref="D260" r:id="rId130" xr:uid="{A25C64D3-F9B5-2547-AC47-CDCF54754375}"/>
+    <hyperlink ref="D261" r:id="rId131" xr:uid="{5516DFF5-E4E0-4649-AF28-C955265184B8}"/>
+    <hyperlink ref="D299" r:id="rId132" xr:uid="{A4DD511D-C804-6A4B-B93C-27B400774A85}"/>
+    <hyperlink ref="D290" r:id="rId133" xr:uid="{71BA1A90-02E0-374D-A5F0-5544FD8C5E4D}"/>
+    <hyperlink ref="D282" r:id="rId134" xr:uid="{211EC35D-1287-E642-86B8-D5AEA65B48EC}"/>
+    <hyperlink ref="D271" r:id="rId135" xr:uid="{DBD5D8AB-1450-824B-8E87-DA12FD5CCE04}"/>
+    <hyperlink ref="D267" r:id="rId136" xr:uid="{B591B48A-7880-D44A-A1B9-060EF236380C}"/>
+    <hyperlink ref="D264" r:id="rId137" xr:uid="{1071C385-A451-F343-B898-B64E1641A38F}"/>
+    <hyperlink ref="C256" r:id="rId138" xr:uid="{FAB31ABD-E96A-384A-9064-DA67AA655A94}"/>
+    <hyperlink ref="D256" r:id="rId139" xr:uid="{E5AAEC27-4262-4045-A733-B50AB650B969}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/casjen2003_newloci.xlsx
+++ b/validation/casjen2003_newloci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/GitHub/happie/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1184A782-573B-5945-A190-DBB7EBF39490}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B5EA2-65CD-B845-8DA9-757BDE1A7D69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7100" windowWidth="19660" windowHeight="10400" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
+    <workbookView xWindow="0" yWindow="7100" windowWidth="19660" windowHeight="10900" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="1368">
   <si>
     <r>
       <t>Agrobacterium tumefa</t>
@@ -8381,6 +8381,33 @@
   </si>
   <si>
     <t>NC_004088.1</t>
+  </si>
+  <si>
+    <t>prophet</t>
+  </si>
+  <si>
+    <t>dimob</t>
+  </si>
+  <si>
+    <t>prphet, dimob</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>940715...958123</t>
+  </si>
+  <si>
+    <t>NC_002570.2</t>
+  </si>
+  <si>
+    <t>NC_000964.3</t>
   </si>
 </sst>
 </file>
@@ -8905,7 +8932,7 @@
   <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H468"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12930,23 +12957,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AAF560-B6FB-894C-9E5A-8825C913F289}">
-  <dimension ref="A1:L304"/>
+  <dimension ref="A1:N304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="L302" sqref="L302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10340" ySplit="3340" topLeftCell="H9" activePane="bottomRight"/>
+      <selection activeCell="C1" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="12" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>879</v>
       </c>
@@ -12983,8 +13014,14 @@
       <c r="L1" s="12" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M1" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>978</v>
       </c>
@@ -13014,8 +13051,14 @@
       <c r="K2" s="12">
         <v>461757</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M2" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G3" s="11" t="s">
         <v>881</v>
       </c>
@@ -13031,8 +13074,11 @@
       <c r="K3" s="12">
         <v>958123</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M3" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
@@ -13048,8 +13094,11 @@
       <c r="K4" s="12">
         <v>2143392</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="M4" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>979</v>
       </c>
@@ -13066,8 +13115,14 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M5" s="12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>980</v>
       </c>
@@ -13097,8 +13152,17 @@
       <c r="K6" s="12">
         <v>150419</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="L6" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G7" s="11" t="s">
         <v>975</v>
       </c>
@@ -13114,8 +13178,11 @@
       <c r="K7" s="12">
         <v>1039160</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M7" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
@@ -13131,8 +13198,11 @@
       <c r="K8" s="12">
         <v>1384348</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M8" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
@@ -13148,8 +13218,14 @@
       <c r="K9" s="12">
         <v>3652122</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="M9" s="15" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>982</v>
       </c>
@@ -13174,13 +13250,19 @@
         <v>885</v>
       </c>
       <c r="J10" s="12">
+        <v>2152852</v>
+      </c>
+      <c r="K10" s="12">
         <v>2283858</v>
       </c>
-      <c r="K10" s="12">
-        <v>2152852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="L10" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G11" s="11" t="s">
         <v>31</v>
       </c>
@@ -13196,8 +13278,11 @@
       <c r="K11" s="12">
         <v>1348182</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.2">
+      <c r="M11" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
@@ -13213,8 +13298,11 @@
       <c r="K12" s="12">
         <v>2669340</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.2">
+      <c r="M12" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.2">
       <c r="G13" s="15" t="s">
         <v>985</v>
       </c>
@@ -13230,8 +13318,11 @@
       <c r="K13" s="12">
         <v>2064833</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M13" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G14" s="15" t="s">
         <v>986</v>
       </c>
@@ -13241,16 +13332,22 @@
       <c r="I14" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.2">
+      <c r="M14" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="G15" s="15" t="s">
         <v>888</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M15" s="12" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>987</v>
       </c>
@@ -13278,7 +13375,7 @@
         <v>1312867</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>988</v>
       </c>
@@ -13314,7 +13411,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="G18" s="11" t="s">
         <v>58</v>
       </c>
@@ -13334,7 +13431,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="G19" s="11" t="s">
         <v>61</v>
       </c>
@@ -13348,7 +13445,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="G20" s="11" t="s">
         <v>64</v>
       </c>
@@ -13362,7 +13459,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="G21" s="11" t="s">
         <v>66</v>
       </c>
@@ -13375,8 +13472,11 @@
       <c r="L21" s="12" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M21" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
@@ -13390,7 +13490,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="G23" s="11" t="s">
         <v>70</v>
       </c>
@@ -13404,7 +13504,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="G24" s="11" t="s">
         <v>73</v>
       </c>
@@ -13424,7 +13524,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="G25" s="11" t="s">
         <v>78</v>
       </c>
@@ -13435,7 +13535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="G26" s="11" t="s">
         <v>81</v>
       </c>
@@ -13454,8 +13554,11 @@
       <c r="L26" s="12" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="M26" s="12" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="G27" s="11" t="s">
         <v>84</v>
       </c>
@@ -13475,7 +13578,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="G28" s="11" t="s">
         <v>88</v>
       </c>
@@ -13495,7 +13598,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>989</v>
       </c>
@@ -13529,7 +13632,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>991</v>
       </c>
@@ -13562,8 +13665,11 @@
       <c r="L30" s="12" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M30" s="12" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>992</v>
       </c>
@@ -13581,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>993</v>
       </c>

--- a/validation/casjen2003_newloci.xlsx
+++ b/validation/casjen2003_newloci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/GitHub/happie/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B5EA2-65CD-B845-8DA9-757BDE1A7D69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E7BE25-DB4E-E94F-8808-8FCF43DD430E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7100" windowWidth="19660" windowHeight="10900" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
+    <workbookView xWindow="-20" yWindow="7160" windowWidth="19660" windowHeight="10900" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1411">
   <si>
     <r>
       <t>Agrobacterium tumefa</t>
@@ -7634,7 +7634,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Shewanella oneidensis  </t>
+      <t xml:space="preserve">Shigella flexneri </t>
     </r>
     <r>
       <rPr>
@@ -7644,18 +7644,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MR</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>2a   301</t>
+    </r>
+  </si>
+  <si>
+    <t>l-like</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sinorhizobium meliloti </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>1021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Staphylococcus aureus</t>
     </r>
     <r>
       <rPr>
@@ -7665,12 +7677,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>–1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shigella flexneri </t>
+      <t xml:space="preserve">  N315       </t>
+    </r>
+  </si>
+  <si>
+    <t>fN315</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staphylococcus  </t>
     </r>
     <r>
       <rPr>
@@ -7680,15 +7695,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2a   301</t>
-    </r>
-  </si>
-  <si>
-    <t>l-like</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sinorhizobium meliloti </t>
+      <t>phage f42-like prophage; largely intact</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Staphylococcus aureus</t>
     </r>
     <r>
       <rPr>
@@ -7698,8 +7710,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1021</t>
-    </r>
+      <t xml:space="preserve">  Mu50</t>
+    </r>
+  </si>
+  <si>
+    <t>fMu50A</t>
+  </si>
+  <si>
+    <t>f42-like prophage (f42 att site)</t>
+  </si>
+  <si>
+    <t>fMu50B</t>
+  </si>
+  <si>
+    <t>At fETA att site)</t>
+  </si>
+  <si>
+    <t>phage-like genes including l J-like gene</t>
   </si>
   <si>
     <r>
@@ -7713,15 +7740,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  N315       </t>
-    </r>
-  </si>
-  <si>
-    <t>fN315</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Staphylococcus  </t>
+      <t xml:space="preserve">  MW2        </t>
+    </r>
+  </si>
+  <si>
+    <t>fSa2mw</t>
+  </si>
+  <si>
+    <t>has LukA &amp; F genes (at fSLT att site)</t>
+  </si>
+  <si>
+    <t>fSa3mw</t>
+  </si>
+  <si>
+    <t>(f42 att site)</t>
+  </si>
+  <si>
+    <t>nSa4mw</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Streptococcus agalactiae </t>
     </r>
     <r>
       <rPr>
@@ -7731,12 +7770,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>phage f42-like prophage; largely intact</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Staphylococcus aureus</t>
+      <t>NEM316</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus mutans  </t>
     </r>
     <r>
       <rPr>
@@ -7746,27 +7785,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  Mu50</t>
-    </r>
-  </si>
-  <si>
-    <t>fMu50A</t>
-  </si>
-  <si>
-    <t>f42-like prophage (f42 att site)</t>
-  </si>
-  <si>
-    <t>fMu50B</t>
-  </si>
-  <si>
-    <t>At fETA att site)</t>
-  </si>
-  <si>
-    <t>phage-like genes including l J-like gene</t>
-  </si>
-  <si>
-    <r>
-      <t>Staphylococcus aureus</t>
+      <t>UA159</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus pneumoniae </t>
     </r>
     <r>
       <rPr>
@@ -7776,27 +7800,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  MW2        </t>
-    </r>
-  </si>
-  <si>
-    <t>fSa2mw</t>
-  </si>
-  <si>
-    <t>has LukA &amp; F genes (at fSLT att site)</t>
-  </si>
-  <si>
-    <t>fSa3mw</t>
-  </si>
-  <si>
-    <t>(f42 att site)</t>
-  </si>
-  <si>
-    <t>nSa4mw</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus agalactiae </t>
+      <t>TIGR4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus pneumoniae </t>
     </r>
     <r>
       <rPr>
@@ -7806,12 +7815,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2603 V/R</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Streptococcus agalactiae </t>
+      <t xml:space="preserve">R6           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus pyogenes </t>
     </r>
     <r>
       <rPr>
@@ -7821,12 +7830,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NEM316</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus mutans  </t>
+      <t>M1 SF370</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus pyogenes </t>
     </r>
     <r>
       <rPr>
@@ -7836,12 +7845,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>UA159</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus pneumoniae </t>
+      <t>M18 MGAS8232</t>
+    </r>
+  </si>
+  <si>
+    <t>FspeA</t>
+  </si>
+  <si>
+    <t>FspeC</t>
+  </si>
+  <si>
+    <t>FspeL/M</t>
+  </si>
+  <si>
+    <t>F370.3-like</t>
+  </si>
+  <si>
+    <t>F370.3-like        similar to 307.3 and at same place</t>
+  </si>
+  <si>
+    <t>Fsda</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus pyogenes </t>
     </r>
     <r>
       <rPr>
@@ -7851,12 +7878,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TIGR4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus pneumoniae </t>
+      <t>M3 MGAS315</t>
+    </r>
+  </si>
+  <si>
+    <t>F315.1</t>
+  </si>
+  <si>
+    <t>FspeA-like</t>
+  </si>
+  <si>
+    <t>F315.2</t>
+  </si>
+  <si>
+    <t>F315.3</t>
+  </si>
+  <si>
+    <t>F315.4</t>
+  </si>
+  <si>
+    <t>Fsda-like</t>
+  </si>
+  <si>
+    <t>F315.5</t>
+  </si>
+  <si>
+    <t>F315.6</t>
+  </si>
+  <si>
+    <r>
+      <t>Synechocystis</t>
     </r>
     <r>
       <rPr>
@@ -7866,12 +7917,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">R6           </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus pyogenes </t>
+      <t xml:space="preserve">  sp. PCC 6803       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thermoanerobacter tengcongensis</t>
     </r>
     <r>
       <rPr>
@@ -7881,12 +7932,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M1 SF370</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus pyogenes </t>
+      <t xml:space="preserve"> MB4T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thermotoga maritima</t>
     </r>
     <r>
       <rPr>
@@ -7896,30 +7947,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M18 MGAS8232</t>
-    </r>
-  </si>
-  <si>
-    <t>FspeA</t>
-  </si>
-  <si>
-    <t>FspeC</t>
-  </si>
-  <si>
-    <t>FspeL/M</t>
-  </si>
-  <si>
-    <t>F370.3-like</t>
-  </si>
-  <si>
-    <t>F370.3-like        similar to 307.3 and at same place</t>
-  </si>
-  <si>
-    <t>Fsda</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptococcus pyogenes </t>
+      <t xml:space="preserve"> MSB8             </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Treponema pallidum</t>
     </r>
     <r>
       <rPr>
@@ -7929,36 +7962,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>M3 MGAS315</t>
-    </r>
-  </si>
-  <si>
-    <t>F315.1</t>
-  </si>
-  <si>
-    <t>FspeA-like</t>
-  </si>
-  <si>
-    <t>F315.2</t>
-  </si>
-  <si>
-    <t>F315.3</t>
-  </si>
-  <si>
-    <t>F315.4</t>
-  </si>
-  <si>
-    <t>Fsda-like</t>
-  </si>
-  <si>
-    <t>F315.5</t>
-  </si>
-  <si>
-    <t>F315.6</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Streptomyces coelicolor </t>
+      <t xml:space="preserve"> Nichols         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ureaplasma urealyticum</t>
     </r>
     <r>
       <rPr>
@@ -7968,12 +7977,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">A3(2)        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Synechocystis</t>
+      <t xml:space="preserve">   serovar  3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vibrio cholerae</t>
     </r>
     <r>
       <rPr>
@@ -7983,12 +7992,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  sp. PCC 6803       </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Thermoanerobacter tengcongensis</t>
+      <t xml:space="preserve"> N16961</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wigglesworthia glossinidia</t>
     </r>
     <r>
       <rPr>
@@ -7998,12 +8007,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> MB4T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Thermotoga maritima</t>
+      <t xml:space="preserve"> brevipalipis        0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xanthomonas axonopodis</t>
     </r>
     <r>
       <rPr>
@@ -8013,12 +8022,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> MSB8             </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Treponema pallidum</t>
+      <t xml:space="preserve">  903</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xanthomonas campestr</t>
     </r>
     <r>
       <rPr>
@@ -8028,12 +8037,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Nichols         </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ureaplasma urealyticum</t>
+      <t xml:space="preserve">is  ATCC33913 </t>
+    </r>
+  </si>
+  <si>
+    <t>FLf1</t>
+  </si>
+  <si>
+    <t>FLf2</t>
+  </si>
+  <si>
+    <r>
+      <t>Xylella fastidiosa</t>
     </r>
     <r>
       <rPr>
@@ -8043,12 +8058,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   serovar  3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Vibrio cholerae</t>
+      <t xml:space="preserve"> 9a5c</t>
+    </r>
+  </si>
+  <si>
+    <t>largely intact; l-like head, P2 tail</t>
+  </si>
+  <si>
+    <r>
+      <t>Xylella fastidiosa</t>
     </r>
     <r>
       <rPr>
@@ -8058,12 +8076,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> N16961</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Wigglesworthia glossinidia</t>
+      <t xml:space="preserve">  Temecula</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yersinia pestis</t>
     </r>
     <r>
       <rPr>
@@ -8073,12 +8091,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> brevipalipis        0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Xanthomonas axonopodis</t>
+      <t xml:space="preserve"> CO92</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">l-like       </t>
+  </si>
+  <si>
+    <t>l-like tail region; on pMT1 plasmid</t>
+  </si>
+  <si>
+    <r>
+      <t>Yersinia pestis</t>
     </r>
     <r>
       <rPr>
@@ -8088,12 +8112,294 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  903</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Xanthomonas campestr</t>
+      <t xml:space="preserve"> KIM10+       </t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>valid_locus_start</t>
+  </si>
+  <si>
+    <t>valid_locus_end</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>NC_000949.1</t>
+  </si>
+  <si>
+    <t>NC_000950.1</t>
+  </si>
+  <si>
+    <t>NC_000951.1</t>
+  </si>
+  <si>
+    <t>NC_000952.1</t>
+  </si>
+  <si>
+    <t>NC_000953.1</t>
+  </si>
+  <si>
+    <t>NC_000954.1</t>
+  </si>
+  <si>
+    <t>NC_000956.1</t>
+  </si>
+  <si>
+    <t>NC_001852.1</t>
+  </si>
+  <si>
+    <t>NC_001857.2</t>
+  </si>
+  <si>
+    <t>NC_000948.1</t>
+  </si>
+  <si>
+    <t>NC_003317.1</t>
+  </si>
+  <si>
+    <t>NC_004310.3</t>
+  </si>
+  <si>
+    <t>NC_002696.2</t>
+  </si>
+  <si>
+    <t>AE002163.1</t>
+  </si>
+  <si>
+    <t>NC_003030.1</t>
+  </si>
+  <si>
+    <t>NC_003366.1</t>
+  </si>
+  <si>
+    <t>NC_004557.1</t>
+  </si>
+  <si>
+    <t>NC_001264.1</t>
+  </si>
+  <si>
+    <t>NC_001263.1</t>
+  </si>
+  <si>
+    <t>NC_000913.3</t>
+  </si>
+  <si>
+    <t>CP008957.1</t>
+  </si>
+  <si>
+    <t>NC_004431.1</t>
+  </si>
+  <si>
+    <t>NC_000907.1</t>
+  </si>
+  <si>
+    <t>NC_002662.1</t>
+  </si>
+  <si>
+    <t>NC_003212.1</t>
+  </si>
+  <si>
+    <t>NC_003210.1</t>
+  </si>
+  <si>
+    <t>NC_002678.2</t>
+  </si>
+  <si>
+    <t>NC_002755.2</t>
+  </si>
+  <si>
+    <t>NC_000962.3</t>
+  </si>
+  <si>
+    <t>NC_003112.2</t>
+  </si>
+  <si>
+    <t>NC_003116.1</t>
+  </si>
+  <si>
+    <t>NC_004193.1</t>
+  </si>
+  <si>
+    <t>NC_002663.1</t>
+  </si>
+  <si>
+    <t>PM0282 and PM0283</t>
+  </si>
+  <si>
+    <t>NC_002516.2</t>
+  </si>
+  <si>
+    <t>NC_002947.4</t>
+  </si>
+  <si>
+    <t>NC_003295.1</t>
+  </si>
+  <si>
+    <t>NC_003103.1</t>
+  </si>
+  <si>
+    <t>NC_003198.1</t>
+  </si>
+  <si>
+    <t>NC_003385.1</t>
+  </si>
+  <si>
+    <t>NC_003197.2</t>
+  </si>
+  <si>
+    <t>NC_004347.2</t>
+  </si>
+  <si>
+    <t>NC_004337.2</t>
+  </si>
+  <si>
+    <t>NC_003047.1</t>
+  </si>
+  <si>
+    <t>NC_002745.2</t>
+  </si>
+  <si>
+    <t>NC_002758.2</t>
+  </si>
+  <si>
+    <t>NC_003923.1</t>
+  </si>
+  <si>
+    <t>NC_004116.1</t>
+  </si>
+  <si>
+    <t>NC_002737.2</t>
+  </si>
+  <si>
+    <t>NC_003485.1</t>
+  </si>
+  <si>
+    <t>NC_004070.1</t>
+  </si>
+  <si>
+    <t>TTE2125…2127</t>
+  </si>
+  <si>
+    <t>TTE2018.. 2031</t>
+  </si>
+  <si>
+    <t>NC_003869.1</t>
+  </si>
+  <si>
+    <t>NC_002505.1</t>
+  </si>
+  <si>
+    <t>NC_003902.1</t>
+  </si>
+  <si>
+    <t>NC_002488.3</t>
+  </si>
+  <si>
+    <t>NC_004556.1</t>
+  </si>
+  <si>
+    <t>?PD957…?PD957</t>
+  </si>
+  <si>
+    <t>NC_003143.1</t>
+  </si>
+  <si>
+    <t>NC_003134.1</t>
+  </si>
+  <si>
+    <t>NC_004088.1</t>
+  </si>
+  <si>
+    <t>prophet</t>
+  </si>
+  <si>
+    <t>dimob</t>
+  </si>
+  <si>
+    <t>prphet, dimob</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>missed</t>
+  </si>
+  <si>
+    <t>940715...958123</t>
+  </si>
+  <si>
+    <t>NC_002570.2</t>
+  </si>
+  <si>
+    <t>NC_000964.3</t>
+  </si>
+  <si>
+    <t>NC_004307.2</t>
+  </si>
+  <si>
+    <t>1146734...1155184</t>
+  </si>
+  <si>
+    <t>NC_000922.1</t>
+  </si>
+  <si>
+    <t>NC_002620.2</t>
+  </si>
+  <si>
+    <t>NC_002932.3</t>
+  </si>
+  <si>
+    <t>dimob, prophet</t>
+  </si>
+  <si>
+    <t>2018118...2047651;3420036...3439785</t>
+  </si>
+  <si>
+    <t>dimob,prophet</t>
+  </si>
+  <si>
+    <t>prophet,dimob</t>
+  </si>
+  <si>
+    <t>719...19889;78071...105813</t>
+  </si>
+  <si>
+    <t>NC_003277.2</t>
+  </si>
+  <si>
+    <t>34149	...53676</t>
+  </si>
+  <si>
+    <t>1092698...1103027</t>
+  </si>
+  <si>
+    <t>1862786...1881935</t>
+  </si>
+  <si>
+    <t>1940579...1959728</t>
+  </si>
+  <si>
+    <t>1063231...1071650</t>
+  </si>
+  <si>
+    <t>1376468...1392763</t>
+  </si>
+  <si>
+    <t>NC_004838.1</t>
+  </si>
+  <si>
+    <t>24271	...47228;83006...100030</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shewanella oneidensis  </t>
     </r>
     <r>
       <rPr>
@@ -8103,36 +8409,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">is  ATCC33913 </t>
-    </r>
-  </si>
-  <si>
-    <t>FLf1</t>
-  </si>
-  <si>
-    <t>FLf2</t>
-  </si>
-  <si>
-    <r>
-      <t>Xylella fastidiosa</t>
-    </r>
-    <r>
-      <rPr>
+      <t>MR</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 9a5c</t>
-    </r>
-  </si>
-  <si>
-    <t>largely intact; l-like head, P2 tail</t>
-  </si>
-  <si>
-    <r>
-      <t>Xylella fastidiosa</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -8142,12 +8430,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  Temecula</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yersinia pestis</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptococcus agalactiae </t>
     </r>
     <r>
       <rPr>
@@ -8157,18 +8445,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> CO92</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">l-like       </t>
-  </si>
-  <si>
-    <t>l-like tail region; on pMT1 plasmid</t>
-  </si>
-  <si>
-    <r>
-      <t>Yersinia pestis</t>
+      <t>2603 VR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Streptomyces coelicolor </t>
     </r>
     <r>
       <rPr>
@@ -8178,236 +8460,118 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> KIM10+       </t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>valid_locus_start</t>
-  </si>
-  <si>
-    <t>valid_locus_end</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>NC_000949.1</t>
-  </si>
-  <si>
-    <t>NC_000950.1</t>
-  </si>
-  <si>
-    <t>NC_000951.1</t>
-  </si>
-  <si>
-    <t>NC_000952.1</t>
-  </si>
-  <si>
-    <t>NC_000953.1</t>
-  </si>
-  <si>
-    <t>NC_000954.1</t>
-  </si>
-  <si>
-    <t>NC_000956.1</t>
-  </si>
-  <si>
-    <t>NC_001852.1</t>
-  </si>
-  <si>
-    <t>NC_001857.2</t>
-  </si>
-  <si>
-    <t>NC_000948.1</t>
-  </si>
-  <si>
-    <t>NC_003317.1</t>
-  </si>
-  <si>
-    <t>NC_004310.3</t>
-  </si>
-  <si>
-    <t>NC_002696.2</t>
-  </si>
-  <si>
-    <t>AE002163.1</t>
-  </si>
-  <si>
-    <t>NC_003030.1</t>
-  </si>
-  <si>
-    <t>NC_003366.1</t>
-  </si>
-  <si>
-    <t>NC_004557.1</t>
-  </si>
-  <si>
-    <t>NC_001264.1</t>
-  </si>
-  <si>
-    <t>NC_001263.1</t>
-  </si>
-  <si>
-    <t>NC_000913.3</t>
-  </si>
-  <si>
-    <t>CP008957.1</t>
-  </si>
-  <si>
-    <t>NC_004431.1</t>
-  </si>
-  <si>
-    <t>NC_000907.1</t>
-  </si>
-  <si>
-    <t>NC_002662.1</t>
-  </si>
-  <si>
-    <t>NC_003212.1</t>
-  </si>
-  <si>
-    <t>NC_003210.1</t>
-  </si>
-  <si>
-    <t>NC_002678.2</t>
-  </si>
-  <si>
-    <t>NC_002755.2</t>
-  </si>
-  <si>
-    <t>NC_000962.3</t>
-  </si>
-  <si>
-    <t>NC_003112.2</t>
-  </si>
-  <si>
-    <t>NC_003116.1</t>
-  </si>
-  <si>
-    <t>NC_004193.1</t>
-  </si>
-  <si>
-    <t>NC_002663.1</t>
-  </si>
-  <si>
-    <t>PM0282 and PM0283</t>
-  </si>
-  <si>
-    <t>NC_002516.2</t>
-  </si>
-  <si>
-    <t>NC_002947.4</t>
-  </si>
-  <si>
-    <t>NC_003295.1</t>
-  </si>
-  <si>
-    <t>NC_003103.1</t>
-  </si>
-  <si>
-    <t>NC_003198.1</t>
-  </si>
-  <si>
-    <t>NC_003385.1</t>
-  </si>
-  <si>
-    <t>NC_003197.2</t>
-  </si>
-  <si>
-    <t>NC_004347.2</t>
-  </si>
-  <si>
-    <t>NC_004337.2</t>
-  </si>
-  <si>
-    <t>NC_003047.1</t>
-  </si>
-  <si>
-    <t>NC_002745.2</t>
-  </si>
-  <si>
-    <t>NC_002758.2</t>
-  </si>
-  <si>
-    <t>NC_003923.1</t>
-  </si>
-  <si>
-    <t>NC_004116.1</t>
-  </si>
-  <si>
-    <t>NC_002737.2</t>
-  </si>
-  <si>
-    <t>NC_003485.1</t>
-  </si>
-  <si>
-    <t>NC_004070.1</t>
-  </si>
-  <si>
-    <t>TTE2125…2127</t>
-  </si>
-  <si>
-    <t>TTE2018.. 2031</t>
-  </si>
-  <si>
-    <t>NC_003869.1</t>
-  </si>
-  <si>
-    <t>NC_002505.1</t>
-  </si>
-  <si>
-    <t>NC_004344.2</t>
-  </si>
-  <si>
-    <t>NC_003902.1</t>
-  </si>
-  <si>
-    <t>NC_002488.3</t>
-  </si>
-  <si>
-    <t>NC_004556.1</t>
-  </si>
-  <si>
-    <t>?PD957…?PD957</t>
-  </si>
-  <si>
-    <t>NC_003143.1</t>
-  </si>
-  <si>
-    <t>NC_003134.1</t>
-  </si>
-  <si>
-    <t>NC_004088.1</t>
-  </si>
-  <si>
-    <t>prophet</t>
-  </si>
-  <si>
-    <t>dimob</t>
-  </si>
-  <si>
-    <t>prphet, dimob</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>missed</t>
-  </si>
-  <si>
-    <t>940715...958123</t>
-  </si>
-  <si>
-    <t>NC_002570.2</t>
-  </si>
-  <si>
-    <t>NC_000964.3</t>
+      <t>A3_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Salmonella enterica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LT2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Salmonella enterica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CT18</t>
+    </r>
+  </si>
+  <si>
+    <t>NC_003062.2</t>
+  </si>
+  <si>
+    <t>NC_000918.1</t>
+  </si>
+  <si>
+    <t>NC_002528.1</t>
+  </si>
+  <si>
+    <t>NC_004061.1</t>
+  </si>
+  <si>
+    <t>NC_004545.1</t>
+  </si>
+  <si>
+    <t>NC_002163.1</t>
+  </si>
+  <si>
+    <t>NC_003454.1</t>
+  </si>
+  <si>
+    <t>NC_002677.1</t>
+  </si>
+  <si>
+    <t>NC_000908.2</t>
+  </si>
+  <si>
+    <t>NC_004432.1</t>
+  </si>
+  <si>
+    <t>NC_000912.1</t>
+  </si>
+  <si>
+    <t>NC_002771.1</t>
+  </si>
+  <si>
+    <t>NC_003272.1</t>
+  </si>
+  <si>
+    <t>NC_004368.1</t>
+  </si>
+  <si>
+    <t>NC_004350.2</t>
+  </si>
+  <si>
+    <t>NC_003028.3</t>
+  </si>
+  <si>
+    <t>NC_003098.1</t>
+  </si>
+  <si>
+    <t>NC_003888.3</t>
+  </si>
+  <si>
+    <t>NC_000911.1</t>
+  </si>
+  <si>
+    <t>NC_000853.1</t>
+  </si>
+  <si>
+    <t>AE000520.1</t>
+  </si>
+  <si>
+    <t>NC_010503.1</t>
+  </si>
+  <si>
+    <t>NC_003425.1</t>
   </si>
 </sst>
 </file>
@@ -12960,11 +13124,11 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10340" ySplit="3340" topLeftCell="H9" activePane="bottomRight"/>
-      <selection activeCell="C1" sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <pane xSplit="3460" ySplit="1040" topLeftCell="C306" activePane="bottomRight"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="A234" sqref="A234:XFD234"/>
+      <selection pane="bottomRight" activeCell="L311" sqref="L311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13006,19 +13170,19 @@
         <v>712</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -13051,11 +13215,14 @@
       <c r="K2" s="12">
         <v>461757</v>
       </c>
+      <c r="L2" s="12" t="s">
+        <v>1388</v>
+      </c>
       <c r="M2" s="12" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.2">
@@ -13075,7 +13242,7 @@
         <v>958123</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.2">
@@ -13095,7 +13262,7 @@
         <v>2143392</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="187" x14ac:dyDescent="0.2">
@@ -13115,11 +13282,14 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
+      <c r="L5" s="12" t="s">
+        <v>1389</v>
+      </c>
       <c r="M5" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -13153,13 +13323,13 @@
         <v>150419</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.2">
@@ -13179,7 +13349,7 @@
         <v>1039160</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.2">
@@ -13199,7 +13369,7 @@
         <v>1384348</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.2">
@@ -13219,10 +13389,10 @@
         <v>3652122</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -13256,10 +13426,10 @@
         <v>2283858</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.2">
@@ -13279,7 +13449,7 @@
         <v>1348182</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="150" x14ac:dyDescent="0.2">
@@ -13299,7 +13469,7 @@
         <v>2669340</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.2">
@@ -13319,7 +13489,7 @@
         <v>2064833</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.2">
@@ -13333,7 +13503,7 @@
         <v>48</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="135" x14ac:dyDescent="0.2">
@@ -13344,7 +13514,7 @@
         <v>50</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -13374,8 +13544,17 @@
       <c r="K16" s="12">
         <v>1312867</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="L16" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>988</v>
       </c>
@@ -13408,10 +13587,13 @@
         <v>30750</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1302</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G18" s="11" t="s">
         <v>58</v>
       </c>
@@ -13428,10 +13610,13 @@
         <v>27919</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+        <v>1293</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G19" s="11" t="s">
         <v>61</v>
       </c>
@@ -13442,10 +13627,13 @@
         <v>63</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1294</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G20" s="11" t="s">
         <v>64</v>
       </c>
@@ -13456,10 +13644,13 @@
         <v>65</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1295</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G21" s="11" t="s">
         <v>66</v>
       </c>
@@ -13470,13 +13661,13 @@
         <v>67</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
@@ -13487,10 +13678,13 @@
         <v>69</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+        <v>1297</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G23" s="11" t="s">
         <v>70</v>
       </c>
@@ -13501,10 +13695,13 @@
         <v>72</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="135" x14ac:dyDescent="0.2">
+        <v>1298</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="G24" s="11" t="s">
         <v>73</v>
       </c>
@@ -13521,10 +13718,13 @@
         <v>37135</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G25" s="11" t="s">
         <v>78</v>
       </c>
@@ -13534,8 +13734,14 @@
       <c r="I25" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="L25" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G26" s="11" t="s">
         <v>81</v>
       </c>
@@ -13552,13 +13758,13 @@
         <v>29618</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="G27" s="11" t="s">
         <v>84</v>
       </c>
@@ -13575,10 +13781,13 @@
         <v>38110</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>1301</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G28" s="11" t="s">
         <v>88</v>
       </c>
@@ -13595,10 +13804,13 @@
         <v>40436</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>989</v>
       </c>
@@ -13629,10 +13841,16 @@
         <v>1404574</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+        <v>1303</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>991</v>
       </c>
@@ -13663,13 +13881,16 @@
         <v>584879</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>1355</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>992</v>
       </c>
@@ -13686,8 +13907,17 @@
       <c r="F31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="L31" s="12" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>993</v>
       </c>
@@ -13702,8 +13932,17 @@
       <c r="F32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L32" s="12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>994</v>
       </c>
@@ -13718,8 +13957,17 @@
       <c r="F33" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L33" s="12" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>995</v>
       </c>
@@ -13734,8 +13982,17 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L34" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>996</v>
       </c>
@@ -13766,10 +14023,16 @@
         <v>3002739</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+        <v>1305</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>998</v>
       </c>
@@ -13784,8 +14047,17 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="L36" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>999</v>
       </c>
@@ -13810,42 +14082,66 @@
         <v>113</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1306</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>1001</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>1002</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L39" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>1003</v>
       </c>
@@ -13860,8 +14156,17 @@
       <c r="F40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L40" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>1004</v>
       </c>
@@ -13876,8 +14181,17 @@
       <c r="F41" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L41" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>1005</v>
       </c>
@@ -13908,10 +14222,16 @@
         <v>1346789</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1307</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G43" s="11" t="s">
         <v>123</v>
       </c>
@@ -13928,10 +14248,13 @@
         <v>2073956</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>1307</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>1006</v>
       </c>
@@ -13962,10 +14285,16 @@
         <v>1327800</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>1308</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>1007</v>
       </c>
@@ -13993,10 +14322,16 @@
         <v>1181003</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1309</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G46" s="11" t="s">
         <v>133</v>
       </c>
@@ -14010,10 +14345,13 @@
         <v>1696272</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1309</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G47" s="11" t="s">
         <v>135</v>
       </c>
@@ -14030,10 +14368,13 @@
         <v>2281387</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1309</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>1009</v>
       </c>
@@ -14064,10 +14405,16 @@
         <v>116151</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+      <c r="M48" s="24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G49" s="21" t="s">
         <v>142</v>
       </c>
@@ -14084,10 +14431,13 @@
         <v>547679</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+        <v>1311</v>
+      </c>
+      <c r="M49" s="20" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>1010</v>
       </c>
@@ -14120,10 +14470,16 @@
         <v>297096</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1312</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G51" s="11" t="s">
         <v>149</v>
       </c>
@@ -14139,8 +14495,11 @@
       <c r="K51" s="12">
         <v>585633</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M51" s="11" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G52" s="11" t="s">
         <v>1013</v>
       </c>
@@ -14156,8 +14515,11 @@
       <c r="K52" s="12">
         <v>807433</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="M52" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="G53" s="11" t="s">
         <v>155</v>
       </c>
@@ -14173,8 +14535,11 @@
       <c r="K53" s="12">
         <v>1211179</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.2">
+      <c r="M53" s="11" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="105" x14ac:dyDescent="0.2">
       <c r="G54" s="11" t="s">
         <v>159</v>
       </c>
@@ -14190,8 +14555,11 @@
       <c r="K54" s="12">
         <v>1434224</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M54" s="11" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G55" s="11" t="s">
         <v>163</v>
       </c>
@@ -14207,8 +14575,11 @@
       <c r="K55" s="12">
         <v>1652708</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M55" s="11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G56" s="11" t="s">
         <v>166</v>
       </c>
@@ -14224,8 +14595,11 @@
       <c r="K56" s="12">
         <v>2078134</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M56" s="11" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G57" s="11" t="s">
         <v>976</v>
       </c>
@@ -14241,8 +14615,11 @@
       <c r="K57" s="12">
         <v>2167820</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M57" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G58" s="11" t="s">
         <v>1017</v>
       </c>
@@ -14258,8 +14635,11 @@
       <c r="K58" s="12">
         <v>2476178</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="150" x14ac:dyDescent="0.2">
+      <c r="M58" s="11" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="G59" s="11" t="s">
         <v>1019</v>
       </c>
@@ -14275,8 +14655,11 @@
       <c r="K59" s="12">
         <v>2565332</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M59" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G60" s="11" t="s">
         <v>179</v>
       </c>
@@ -14292,18 +14675,21 @@
       <c r="K60" s="12">
         <v>2777782</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="11" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H61" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="H62" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>183</v>
       </c>
@@ -14318,7 +14704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G64" s="11" t="s">
         <v>1022</v>
       </c>
@@ -14334,8 +14720,11 @@
       <c r="K64" s="12">
         <v>2012351</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M64" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G65" s="12" t="s">
         <v>1023</v>
       </c>
@@ -14351,8 +14740,11 @@
       <c r="K65" s="12">
         <v>4497940</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M65" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>1152</v>
       </c>
@@ -14383,10 +14775,12 @@
         <v>310239</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1313</v>
+      </c>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G67" s="11" t="s">
         <v>197</v>
       </c>
@@ -14403,7 +14797,7 @@
         <v>322981</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G68" s="11" t="s">
         <v>200</v>
       </c>
@@ -14420,7 +14814,7 @@
         <v>928134</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G69" s="11" t="s">
         <v>203</v>
       </c>
@@ -14437,7 +14831,7 @@
         <v>1298305</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G70" s="15" t="s">
         <v>206</v>
       </c>
@@ -14454,7 +14848,7 @@
         <v>1394578</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="G71" s="11" t="s">
         <v>209</v>
       </c>
@@ -14471,7 +14865,7 @@
         <v>1675087</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G72" s="11" t="s">
         <v>213</v>
       </c>
@@ -14488,7 +14882,7 @@
         <v>1695046</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G73" s="11" t="s">
         <v>1159</v>
       </c>
@@ -14503,7 +14897,7 @@
         <v>1728559</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="210" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="210" x14ac:dyDescent="0.2">
       <c r="G74" s="11" t="s">
         <v>1026</v>
       </c>
@@ -14520,7 +14914,7 @@
         <v>1270491</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
         <v>1027</v>
       </c>
@@ -14537,7 +14931,7 @@
         <v>1892291</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G76" s="11" t="s">
         <v>1029</v>
       </c>
@@ -14554,7 +14948,7 @@
         <v>1272058</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G77" s="11" t="s">
         <v>227</v>
       </c>
@@ -14565,7 +14959,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G78" s="11" t="s">
         <v>1031</v>
       </c>
@@ -14576,7 +14970,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G79" s="11" t="s">
         <v>234</v>
       </c>
@@ -14587,7 +14981,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="105" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="105" x14ac:dyDescent="0.2">
       <c r="G80" s="11" t="s">
         <v>237</v>
       </c>
@@ -14598,7 +14992,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="G81" s="11" t="s">
         <v>241</v>
       </c>
@@ -14609,7 +15003,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="G82" s="11" t="s">
         <v>245</v>
       </c>
@@ -14620,12 +15014,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="H83" s="11" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="120" x14ac:dyDescent="0.2">
       <c r="G84" s="11" t="s">
         <v>249</v>
       </c>
@@ -14636,7 +15030,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="G85" s="11" t="s">
         <v>254</v>
       </c>
@@ -14647,7 +15041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="G86" s="11" t="s">
         <v>257</v>
       </c>
@@ -14658,16 +15052,16 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>1170</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="15">
@@ -14682,8 +15076,11 @@
       <c r="I87" s="15" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="L87" s="15" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>265</v>
       </c>
@@ -14701,7 +15098,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
@@ -14716,7 +15113,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -14731,7 +15128,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -14746,7 +15143,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -14761,7 +15158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
@@ -14776,7 +15173,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
@@ -14791,7 +15188,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -14806,7 +15203,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
@@ -14821,7 +15218,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -14836,7 +15233,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
@@ -14851,7 +15248,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -14866,7 +15263,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -14881,7 +15278,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
@@ -14896,7 +15293,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
@@ -14911,7 +15308,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
@@ -14926,7 +15323,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -14941,7 +15338,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="150" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
         <v>1184</v>
       </c>
@@ -14974,10 +15371,16 @@
         <v>630053</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1314</v>
+      </c>
+      <c r="M105" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N105" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G106" s="15" t="s">
         <v>1037</v>
       </c>
@@ -14993,8 +15396,11 @@
       <c r="K106" s="12">
         <v>942273</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M106" s="12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G107" s="15" t="s">
         <v>1039</v>
       </c>
@@ -15010,8 +15416,11 @@
       <c r="K107" s="12">
         <v>1228729</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G108" s="15" t="s">
         <v>1041</v>
       </c>
@@ -15027,8 +15436,11 @@
       <c r="K108" s="12">
         <v>1372820</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G109" s="15" t="s">
         <v>328</v>
       </c>
@@ -15042,8 +15454,11 @@
       <c r="K109" s="12">
         <v>1389209</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G110" s="15" t="s">
         <v>1043</v>
       </c>
@@ -15059,8 +15474,11 @@
       <c r="K110" s="12">
         <v>1452231</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G111" s="15" t="s">
         <v>1044</v>
       </c>
@@ -15076,8 +15494,11 @@
       <c r="K111" s="12">
         <v>3065315</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M111" s="12" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G112" s="15" t="s">
         <v>1045</v>
       </c>
@@ -15093,8 +15514,11 @@
       <c r="K112" s="12">
         <v>4929628</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M112" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>1186</v>
       </c>
@@ -15109,8 +15533,14 @@
       <c r="F113" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L113" s="12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N113" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>1187</v>
       </c>
@@ -15141,10 +15571,16 @@
         <v>1594275</v>
       </c>
       <c r="L114" s="11" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+        <v>1315</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="G115" s="11" t="s">
         <v>1188</v>
       </c>
@@ -15160,8 +15596,11 @@
       <c r="K115" s="12">
         <v>1513073</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M115" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G116" s="11" t="s">
         <v>348</v>
       </c>
@@ -15177,8 +15616,11 @@
       <c r="K116" s="12">
         <v>1638288</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M116" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>1189</v>
       </c>
@@ -15193,8 +15635,14 @@
       <c r="F117" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M117" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N117" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>1190</v>
       </c>
@@ -15209,8 +15657,14 @@
       <c r="F118" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M118" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N118" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>1191</v>
       </c>
@@ -15241,10 +15695,16 @@
         <v>49727</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1316</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N119" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G120" s="11" t="s">
         <v>357</v>
       </c>
@@ -15260,8 +15720,11 @@
       <c r="K120" s="12">
         <v>483244</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M120" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G121" s="11" t="s">
         <v>360</v>
       </c>
@@ -15277,8 +15740,11 @@
       <c r="K121" s="12">
         <v>513742</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M121" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G122" s="11" t="s">
         <v>363</v>
       </c>
@@ -15294,8 +15760,11 @@
       <c r="K122" s="12">
         <v>1070479</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M122" s="12" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G123" s="11" t="s">
         <v>366</v>
       </c>
@@ -15311,8 +15780,11 @@
       <c r="K123" s="12">
         <v>1456949</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M123" s="12" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G124" s="11" t="s">
         <v>369</v>
       </c>
@@ -15328,8 +15800,11 @@
       <c r="K124" s="12">
         <v>2025635</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="289" x14ac:dyDescent="0.2">
+      <c r="M124" s="12" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>1192</v>
       </c>
@@ -15362,10 +15837,16 @@
         <v>114250</v>
       </c>
       <c r="L125" s="11" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1317</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G126" s="15" t="s">
         <v>376</v>
       </c>
@@ -15381,8 +15862,11 @@
       <c r="K126" s="12">
         <v>166661</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M126" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G127" s="15" t="s">
         <v>378</v>
       </c>
@@ -15398,8 +15882,11 @@
       <c r="K127" s="12">
         <v>1294235</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M127" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G128" s="15" t="s">
         <v>381</v>
       </c>
@@ -15415,8 +15902,11 @@
       <c r="K128" s="12">
         <v>1762089</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M128" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G129" s="15" t="s">
         <v>385</v>
       </c>
@@ -15432,8 +15922,11 @@
       <c r="K129" s="12">
         <v>2445891</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M129" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G130" s="15" t="s">
         <v>388</v>
       </c>
@@ -15449,8 +15942,11 @@
       <c r="K130" s="12">
         <v>2625807</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M130" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>1195</v>
       </c>
@@ -15481,10 +15977,13 @@
         <v>131380</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1318</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G132" s="11" t="s">
         <v>394</v>
       </c>
@@ -15500,8 +15999,11 @@
       <c r="K132" s="12">
         <v>2400243</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M132" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>1197</v>
       </c>
@@ -15523,10 +16025,16 @@
         <v>399</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1319</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G134" s="11" t="s">
         <v>400</v>
       </c>
@@ -15535,7 +16043,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G135" s="11" t="s">
         <v>402</v>
       </c>
@@ -15543,7 +16051,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G136" s="11"/>
       <c r="H136" s="26" t="s">
         <v>1052</v>
@@ -15552,7 +16060,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H137" s="27" t="s">
         <v>1053</v>
       </c>
@@ -15560,7 +16068,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>410</v>
       </c>
@@ -15575,8 +16083,17 @@
       <c r="F138" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L138" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M138" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>1198</v>
       </c>
@@ -15607,10 +16124,16 @@
         <v>1788505</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1321</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N139" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G140" s="11" t="s">
         <v>1200</v>
       </c>
@@ -15623,8 +16146,11 @@
       <c r="K140" s="12">
         <v>2981576</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M140" s="12" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>1201</v>
       </c>
@@ -15655,10 +16181,16 @@
         <v>2975604</v>
       </c>
       <c r="L141" s="11" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1320</v>
+      </c>
+      <c r="M141" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N141" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G142" s="11" t="s">
         <v>421</v>
       </c>
@@ -15674,8 +16206,11 @@
       <c r="K142" s="12">
         <v>3879375</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M142" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>1204</v>
       </c>
@@ -15690,8 +16225,14 @@
       <c r="F143" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L143" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="N143" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>1205</v>
       </c>
@@ -15706,8 +16247,14 @@
       <c r="F144" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L144" s="12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="N144" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>1206</v>
       </c>
@@ -15722,8 +16269,14 @@
       <c r="F145" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L145" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="N145" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>1207</v>
       </c>
@@ -15738,8 +16291,14 @@
       <c r="F146" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L146" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N146" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>1208</v>
       </c>
@@ -15770,10 +16329,16 @@
         <v>1133980</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1322</v>
+      </c>
+      <c r="M147" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N147" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G148" s="11" t="s">
         <v>1056</v>
       </c>
@@ -15789,8 +16354,11 @@
       <c r="K148" s="12">
         <v>1005455</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M148" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G149" s="11"/>
       <c r="H149" s="11" t="s">
         <v>1209</v>
@@ -15804,8 +16372,11 @@
       <c r="K149" s="12">
         <v>1698334</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M149" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>1210</v>
       </c>
@@ -15836,10 +16407,16 @@
         <v>1807515</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1323</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N150" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G151" s="11" t="s">
         <v>439</v>
       </c>
@@ -15855,8 +16432,11 @@
       <c r="K151" s="12">
         <v>1216967</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M151" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G152" s="11" t="s">
         <v>442</v>
       </c>
@@ -15872,8 +16452,11 @@
       <c r="K152" s="12">
         <v>1138899</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M152" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="H153" s="11" t="s">
         <v>445</v>
       </c>
@@ -15886,8 +16469,11 @@
       <c r="K153" s="12">
         <v>1164217</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M153" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="H154" s="11" t="s">
         <v>1211</v>
       </c>
@@ -15900,8 +16486,11 @@
       <c r="K154" s="12">
         <v>1938553</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M154" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>1212</v>
       </c>
@@ -15916,8 +16505,17 @@
       <c r="F155" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L155" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M155" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N155" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>1213</v>
       </c>
@@ -15948,10 +16546,16 @@
         <v>239888</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+        <v>1324</v>
+      </c>
+      <c r="M156" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N156" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
         <v>1215</v>
       </c>
@@ -15982,10 +16586,16 @@
         <v>2006460</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+        <v>1325</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N157" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="G158" s="15" t="s">
         <v>458</v>
       </c>
@@ -15993,7 +16603,7 @@
         <v>1217</v>
       </c>
       <c r="I158" s="15" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J158" s="15">
         <v>321193</v>
@@ -16001,8 +16611,11 @@
       <c r="K158" s="12">
         <v>323638</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M158" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>1218</v>
       </c>
@@ -16033,10 +16646,13 @@
         <v>689221</v>
       </c>
       <c r="L159" s="11" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1327</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G160" s="11" t="s">
         <v>467</v>
       </c>
@@ -16052,8 +16668,11 @@
       <c r="K160" s="12">
         <v>702529</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="L160" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="H161" s="11" t="s">
         <v>470</v>
       </c>
@@ -16066,8 +16685,11 @@
       <c r="K161" s="12">
         <v>796776</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L161" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>1220</v>
       </c>
@@ -16098,10 +16720,13 @@
         <v>1774809</v>
       </c>
       <c r="L162" s="11" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1328</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G163" s="11" t="s">
         <v>476</v>
       </c>
@@ -16117,8 +16742,11 @@
       <c r="K163" s="12">
         <v>2625822</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M163" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G164" s="11" t="s">
         <v>479</v>
       </c>
@@ -16134,8 +16762,11 @@
       <c r="K164" s="12">
         <v>3447238</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M164" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G165" s="11" t="s">
         <v>482</v>
       </c>
@@ -16151,8 +16782,11 @@
       <c r="K165" s="12">
         <v>4427416</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M165" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>1222</v>
       </c>
@@ -16183,10 +16817,16 @@
         <v>939437</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1329</v>
+      </c>
+      <c r="M166" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N166" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G167" s="11" t="s">
         <v>489</v>
       </c>
@@ -16202,8 +16842,11 @@
       <c r="K167" s="12">
         <v>1018473</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M167" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G168" s="11" t="s">
         <v>492</v>
       </c>
@@ -16219,8 +16862,11 @@
       <c r="K168" s="12">
         <v>1598986</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M168" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G169" s="11" t="s">
         <v>495</v>
       </c>
@@ -16236,8 +16882,11 @@
       <c r="K169" s="12">
         <v>1823875</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M169" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G170" s="11" t="s">
         <v>498</v>
       </c>
@@ -16253,8 +16902,11 @@
       <c r="K170" s="12">
         <v>2056036</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="225" x14ac:dyDescent="0.2">
+      <c r="M170" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="225" x14ac:dyDescent="0.2">
       <c r="G171" s="11" t="s">
         <v>501</v>
       </c>
@@ -16270,8 +16922,11 @@
       <c r="K171" s="12">
         <v>2122484</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M171" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G172" s="11" t="s">
         <v>508</v>
       </c>
@@ -16287,8 +16942,11 @@
       <c r="K172" s="12">
         <v>2695788</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M172" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G173" s="11" t="s">
         <v>511</v>
       </c>
@@ -16305,7 +16963,7 @@
         <v>3505550</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G174" s="11"/>
       <c r="H174" s="11" t="s">
         <v>1058</v>
@@ -16319,8 +16977,11 @@
       <c r="K174" s="12">
         <v>58345</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H175" s="11" t="s">
         <v>516</v>
       </c>
@@ -16333,8 +16994,11 @@
       <c r="K175" s="12">
         <v>3457386</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M175" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>1223</v>
       </c>
@@ -16365,10 +17029,16 @@
         <v>485297</v>
       </c>
       <c r="L176" s="12" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1330</v>
+      </c>
+      <c r="M176" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N176" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="H177" s="11" t="s">
         <v>522</v>
       </c>
@@ -16381,8 +17051,11 @@
       <c r="K177" s="12">
         <v>700472</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M177" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>1224</v>
       </c>
@@ -16397,12 +17070,20 @@
       <c r="F178" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L178" s="12" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N178" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B179" s="13" t="s">
         <v>1225</v>
       </c>
-      <c r="B179" s="13"/>
       <c r="C179" s="14" t="s">
         <v>941</v>
       </c>
@@ -16429,10 +17110,16 @@
         <v>1052755</v>
       </c>
       <c r="L179" s="12" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1331</v>
+      </c>
+      <c r="M179" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N179" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>183</v>
       </c>
@@ -16455,8 +17142,11 @@
       <c r="K180" s="12">
         <v>1322767</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M180" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
         <v>533</v>
       </c>
@@ -16479,8 +17169,11 @@
       <c r="K181" s="12">
         <v>1572919</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M181" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G182" s="11" t="s">
         <v>537</v>
       </c>
@@ -16496,8 +17189,11 @@
       <c r="K182" s="12">
         <v>1887913</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M182" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G183" s="11" t="s">
         <v>540</v>
       </c>
@@ -16513,8 +17209,11 @@
       <c r="K183" s="12">
         <v>1933558</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M183" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G184" s="11" t="s">
         <v>543</v>
       </c>
@@ -16530,8 +17229,11 @@
       <c r="K184" s="12">
         <v>2302169</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M184" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G185" s="11" t="s">
         <v>546</v>
       </c>
@@ -16547,8 +17249,11 @@
       <c r="K185" s="12">
         <v>2465128</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M185" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G186" s="11" t="s">
         <v>549</v>
       </c>
@@ -16564,8 +17269,11 @@
       <c r="K186" s="12">
         <v>2768771</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M186" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G187" s="11" t="s">
         <v>552</v>
       </c>
@@ -16581,8 +17289,11 @@
       <c r="K187" s="12">
         <v>3548975</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M187" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G188" s="11" t="s">
         <v>555</v>
       </c>
@@ -16598,8 +17309,11 @@
       <c r="K188" s="12">
         <v>4507270</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M188" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G189" s="11" t="s">
         <v>558</v>
       </c>
@@ -16615,8 +17329,11 @@
       <c r="K189" s="12">
         <v>4694545</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="150" x14ac:dyDescent="0.2">
+      <c r="M189" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="G190" s="11" t="s">
         <v>560</v>
       </c>
@@ -16633,10 +17350,16 @@
         <v>51818</v>
       </c>
       <c r="L190" s="12" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1332</v>
+      </c>
+      <c r="M190" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N190" s="12" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="H191" s="11" t="s">
         <v>566</v>
       </c>
@@ -16649,8 +17372,14 @@
       <c r="K191" s="12">
         <v>17032</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="L191" s="12" t="s">
+        <v>1331</v>
+      </c>
+      <c r="M191" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="H192" s="11" t="s">
         <v>568</v>
       </c>
@@ -16663,8 +17392,11 @@
       <c r="K192" s="12">
         <v>299115</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M192" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="H193" s="11" t="s">
         <v>570</v>
       </c>
@@ -16677,8 +17409,11 @@
       <c r="K193" s="12">
         <v>2441765</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H194" s="11" t="s">
         <v>572</v>
       </c>
@@ -16691,12 +17426,17 @@
       <c r="K194" s="12">
         <v>4064311</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M194" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B195" s="16" t="s">
         <v>1231</v>
       </c>
-      <c r="B195" s="16"/>
       <c r="C195" s="14" t="s">
         <v>942</v>
       </c>
@@ -16723,10 +17463,13 @@
         <v>1006520</v>
       </c>
       <c r="L195" s="12" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1333</v>
+      </c>
+      <c r="M195" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -16747,8 +17490,11 @@
       <c r="K196" s="12">
         <v>1143702</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M196" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G197" s="15" t="s">
         <v>1059</v>
       </c>
@@ -16764,8 +17510,11 @@
       <c r="K197" s="12">
         <v>2059906</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M197" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G198" s="15" t="s">
         <v>1060</v>
       </c>
@@ -16781,8 +17530,11 @@
       <c r="K198" s="12">
         <v>2345216</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M198" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G199" s="15" t="s">
         <v>585</v>
       </c>
@@ -16798,8 +17550,11 @@
       <c r="K199" s="12">
         <v>2776825</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M199" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G200" s="15" t="s">
         <v>587</v>
       </c>
@@ -16815,8 +17570,11 @@
       <c r="K200" s="12">
         <v>2879237</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M200" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G201" s="11" t="s">
         <v>1061</v>
       </c>
@@ -16830,8 +17588,11 @@
       <c r="K201" s="12">
         <v>4438350</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H202" s="11" t="s">
         <v>592</v>
       </c>
@@ -16844,8 +17605,11 @@
       <c r="K202" s="12">
         <v>19966</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H203" s="11" t="s">
         <v>594</v>
       </c>
@@ -16858,8 +17622,11 @@
       <c r="K203" s="12">
         <v>2906923</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H204" s="11" t="s">
         <v>596</v>
       </c>
@@ -16872,606 +17639,726 @@
       <c r="K204" s="12">
         <v>3779474</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A205" s="13" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="14" t="s">
+      <c r="M204" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="L205" s="12" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M205" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N205" s="12" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A206" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B206" s="13"/>
+      <c r="C206" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D206" s="14" t="s">
         <v>1125</v>
       </c>
-      <c r="E205" s="14"/>
-      <c r="F205" s="11">
+      <c r="E206" s="14"/>
+      <c r="F206" s="11">
         <v>3</v>
       </c>
-      <c r="G205" s="11" t="s">
+      <c r="G206" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="H205" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="I205" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="J205" s="12">
-        <v>669361</v>
-      </c>
-      <c r="K205" s="12">
-        <v>705623</v>
-      </c>
-      <c r="L205" s="12" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G206" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="H206" s="11" t="s">
         <v>600</v>
       </c>
       <c r="I206" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="J206" s="12">
+        <v>669361</v>
+      </c>
+      <c r="K206" s="12">
+        <v>705623</v>
+      </c>
+      <c r="L206" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M206" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N206" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G207" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="I207" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="J206" s="12">
+      <c r="J207" s="12">
         <v>2788311</v>
       </c>
-      <c r="K206" s="12">
+      <c r="K207" s="12">
         <v>2822840</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G207" s="11" t="s">
+      <c r="M207" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G208" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="H207" s="11" t="s">
+      <c r="H208" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="I207" s="11" t="s">
+      <c r="I208" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="J207" s="12">
+      <c r="J208" s="12">
         <v>3075413</v>
       </c>
-      <c r="K207" s="12">
+      <c r="K208" s="12">
         <v>3126253</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A208" s="13" t="s">
+      <c r="M208" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A209" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B209" s="13"/>
+      <c r="C209" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="D209" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E209" s="14"/>
+      <c r="F209" s="11">
+        <v>11</v>
+      </c>
+      <c r="G209" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="I209" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="J209" s="12">
+        <v>238841</v>
+      </c>
+      <c r="K209" s="12">
+        <v>251370</v>
+      </c>
+      <c r="L209" s="12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M209" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N209" s="12" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="G210" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="J210" s="12">
+        <v>311291</v>
+      </c>
+      <c r="K210" s="12">
+        <v>328079</v>
+      </c>
+      <c r="M210" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G211" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="H211" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="B208" s="13"/>
-      <c r="C208" s="14" t="s">
-        <v>944</v>
-      </c>
-      <c r="D208" s="14" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E208" s="14"/>
-      <c r="F208" s="11">
-        <v>11</v>
-      </c>
-      <c r="G208" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="H208" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="I208" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="J208" s="12">
-        <v>238841</v>
-      </c>
-      <c r="K208" s="12">
-        <v>251370</v>
-      </c>
-      <c r="L208" s="12" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="G209" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="H209" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="I209" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="J209" s="12">
-        <v>311291</v>
-      </c>
-      <c r="K209" s="12">
-        <v>328079</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G210" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="H210" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I210" s="11" t="s">
+      <c r="I211" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="J210" s="12">
+      <c r="J211" s="12">
         <v>696659</v>
       </c>
-      <c r="K210" s="12">
+      <c r="K211" s="12">
         <v>747734</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G211" s="11" t="s">
+      <c r="M211" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G212" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="H211" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="I211" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="J211" s="12">
-        <v>899706</v>
-      </c>
-      <c r="K211" s="12">
-        <v>918668</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G212" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="H212" s="11" t="s">
         <v>617</v>
       </c>
       <c r="I212" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="J212" s="12">
+        <v>899706</v>
+      </c>
+      <c r="K212" s="12">
+        <v>918668</v>
+      </c>
+      <c r="M212" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G213" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="H213" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="I213" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="J212" s="12">
+      <c r="J213" s="12">
         <v>1178175</v>
       </c>
-      <c r="K212" s="12">
+      <c r="K213" s="12">
         <v>1188408</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" ht="60" x14ac:dyDescent="0.2">
-      <c r="G213" s="11" t="s">
+      <c r="M213" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="G214" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="H213" s="11" t="s">
+      <c r="H214" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="I213" s="11" t="s">
+      <c r="I214" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="J213" s="12">
+      <c r="J214" s="12">
         <v>1395280</v>
       </c>
-      <c r="K213" s="12">
+      <c r="K214" s="12">
         <v>1421884</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G214" s="11" t="s">
+      <c r="M214" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G215" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="H214" s="11" t="s">
+      <c r="H215" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="I214" s="11" t="s">
+      <c r="I215" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="J214" s="12">
+      <c r="J215" s="12">
         <v>1578402</v>
       </c>
-      <c r="K214" s="12">
+      <c r="K215" s="12">
         <v>1580656</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="G215" s="11" t="s">
+      <c r="M215" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="G216" s="11" t="s">
         <v>626</v>
-      </c>
-      <c r="H215" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="I215" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="J215" s="12">
-        <v>1919853</v>
-      </c>
-      <c r="K215" s="12">
-        <v>1942696</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="G216" s="11" t="s">
-        <v>629</v>
       </c>
       <c r="H216" s="11" t="s">
         <v>627</v>
       </c>
       <c r="I216" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="J216" s="12">
+        <v>1919853</v>
+      </c>
+      <c r="K216" s="12">
+        <v>1942696</v>
+      </c>
+      <c r="M216" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="G217" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="H217" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="I217" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="J216" s="12">
+      <c r="J217" s="12">
         <v>2049693</v>
       </c>
-      <c r="K216" s="12">
+      <c r="K217" s="12">
         <v>2066593</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G217" s="11" t="s">
+      <c r="M217" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G218" s="11" t="s">
         <v>631</v>
-      </c>
-      <c r="H217" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="I217" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="J217" s="12">
-        <v>2227584</v>
-      </c>
-      <c r="K217" s="12">
-        <v>2236001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G218" s="11" t="s">
-        <v>633</v>
       </c>
       <c r="H218" s="11" t="s">
         <v>617</v>
       </c>
       <c r="I218" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="J218" s="12">
+        <v>2227584</v>
+      </c>
+      <c r="K218" s="12">
+        <v>2236001</v>
+      </c>
+      <c r="M218" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G219" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="H219" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="I219" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="J218" s="12">
+      <c r="J219" s="12">
         <v>2683558</v>
       </c>
-      <c r="K218" s="12">
+      <c r="K219" s="12">
         <v>2698943</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A219" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="14" t="s">
-        <v>945</v>
-      </c>
-      <c r="D219" s="14" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E219" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="F219" s="11">
-        <v>0</v>
-      </c>
-      <c r="H219" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="I219" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="J219" s="12">
-        <v>2175636</v>
-      </c>
-      <c r="K219" s="12">
-        <v>2177069</v>
-      </c>
-      <c r="L219" s="12" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M219" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B220" s="13"/>
       <c r="C220" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="D220" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="F220" s="11">
+        <v>0</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="I220" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="J220" s="12">
+        <v>2175636</v>
+      </c>
+      <c r="K220" s="12">
+        <v>2177069</v>
+      </c>
+      <c r="L220" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M220" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N220" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A221" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B221" s="13"/>
+      <c r="C221" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D221" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="E220" s="14"/>
-      <c r="F220" s="11">
+      <c r="E221" s="14"/>
+      <c r="F221" s="11">
         <v>1</v>
       </c>
-      <c r="G220" s="11" t="s">
+      <c r="G221" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H221" s="13" t="s">
         <v>1237</v>
       </c>
-      <c r="H220" s="13" t="s">
+      <c r="I221" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="J221" s="12">
+        <v>2005349</v>
+      </c>
+      <c r="K221" s="12">
+        <v>2049520</v>
+      </c>
+      <c r="L221" s="12" t="s">
+        <v>1337</v>
+      </c>
+      <c r="M221" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N221" s="12" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="H222" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="I222" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="J222" s="11">
+        <v>2061935</v>
+      </c>
+      <c r="K222" s="12">
+        <v>2062504</v>
+      </c>
+      <c r="M222" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H223" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="I223" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="J223" s="11">
+        <v>2739595</v>
+      </c>
+      <c r="K223" s="12">
+        <v>2741454</v>
+      </c>
+      <c r="M223" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A224" s="13" t="s">
         <v>1238</v>
       </c>
-      <c r="I220" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="J220" s="12">
-        <v>2005349</v>
-      </c>
-      <c r="K220" s="12">
-        <v>2049520</v>
-      </c>
-      <c r="L220" s="12" t="s">
+      <c r="B224" s="13"/>
+      <c r="C224" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E224" s="14"/>
+      <c r="F224" s="11">
+        <v>3</v>
+      </c>
+      <c r="G224" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I224" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="J224" s="12">
+        <v>917507</v>
+      </c>
+      <c r="K224" s="12">
+        <v>962565</v>
+      </c>
+      <c r="L224" s="12" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M224" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N224" s="12" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G225" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I225" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="J225" s="12">
+        <v>2083515</v>
+      </c>
+      <c r="K225" s="12">
+        <v>2126110</v>
+      </c>
+      <c r="M225" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="G226" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="H226" s="11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I226" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="J226" s="12">
+        <v>2800117</v>
+      </c>
+      <c r="K226" s="12">
+        <v>2805168</v>
+      </c>
+      <c r="M226" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="H227" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="I227" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="J227" s="12">
+        <v>878043</v>
+      </c>
+      <c r="K227" s="12">
+        <v>878612</v>
+      </c>
+      <c r="M227" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A228" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B228" s="13"/>
+      <c r="C228" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="D228" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E228" s="14"/>
+      <c r="F228" s="11">
+        <v>3</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H228" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I228" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="J228" s="12">
+        <v>1529381</v>
+      </c>
+      <c r="K228" s="12">
+        <v>1572992</v>
+      </c>
+      <c r="L228" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="M228" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N228" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G229" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I229" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J229" s="12">
+        <v>2046605</v>
+      </c>
+      <c r="K229" s="12">
+        <v>2088749</v>
+      </c>
+      <c r="M229" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="G230" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H230" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="I230" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="J230" s="12">
+        <v>2099432</v>
+      </c>
+      <c r="K230" s="12">
+        <v>2100231</v>
+      </c>
+      <c r="M230" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A231" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B231" s="13"/>
+      <c r="C231" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="D231" s="14" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E231" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F231" s="11">
+        <v>2</v>
+      </c>
+      <c r="G231" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="H231" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I231" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="J231" s="12">
+        <v>558254</v>
+      </c>
+      <c r="K231" s="12">
+        <v>599207</v>
+      </c>
+      <c r="L231" s="12" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="H221" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="I221" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="J221" s="11">
-        <v>2061935</v>
-      </c>
-      <c r="K221" s="12">
-        <v>2062504</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H222" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="I222" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="J222" s="11">
-        <v>2739595</v>
-      </c>
-      <c r="K222" s="12">
-        <v>2741454</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A223" s="13" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B223" s="13"/>
-      <c r="C223" s="14" t="s">
-        <v>947</v>
-      </c>
-      <c r="D223" s="14" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E223" s="14"/>
-      <c r="F223" s="11">
-        <v>3</v>
-      </c>
-      <c r="G223" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H223" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I223" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="J223" s="12">
-        <v>917507</v>
-      </c>
-      <c r="K223" s="12">
-        <v>962565</v>
-      </c>
-      <c r="L223" s="12" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G224" s="11" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H224" s="11" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I224" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="J224" s="12">
-        <v>2083515</v>
-      </c>
-      <c r="K224" s="12">
-        <v>2126110</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="60" x14ac:dyDescent="0.2">
-      <c r="G225" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="H225" s="11" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I225" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="J225" s="12">
-        <v>2800117</v>
-      </c>
-      <c r="K225" s="12">
-        <v>2805168</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="H226" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="I226" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="J226" s="12">
-        <v>878043</v>
-      </c>
-      <c r="K226" s="12">
-        <v>878612</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A227" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B227" s="13"/>
-      <c r="C227" s="14" t="s">
-        <v>948</v>
-      </c>
-      <c r="D227" s="14" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E227" s="14"/>
-      <c r="F227" s="11">
-        <v>3</v>
-      </c>
-      <c r="G227" s="11" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H227" s="11" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I227" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="J227" s="12">
-        <v>1529381</v>
-      </c>
-      <c r="K227" s="12">
-        <v>1572992</v>
-      </c>
-      <c r="L227" s="11" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G228" s="11" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H228" s="11" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I228" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="J228" s="12">
-        <v>2046605</v>
-      </c>
-      <c r="K228" s="12">
-        <v>2088749</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12" ht="45" x14ac:dyDescent="0.2">
-      <c r="G229" s="11" t="s">
+      <c r="M231" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N231" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="G232" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="H232" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I232" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="J232" s="12">
+        <v>1833318</v>
+      </c>
+      <c r="K232" s="12">
+        <v>1867117</v>
+      </c>
+      <c r="M232" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A233" s="13" t="s">
         <v>1250</v>
       </c>
-      <c r="H229" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="I229" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="J229" s="12">
-        <v>2099432</v>
-      </c>
-      <c r="K229" s="12">
-        <v>2100231</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="119" x14ac:dyDescent="0.2">
-      <c r="A230" s="13" t="s">
+      <c r="B233" s="13"/>
+      <c r="C233" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E233" s="14"/>
+      <c r="F233" s="11">
+        <v>0</v>
+      </c>
+      <c r="G233" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="L233" s="12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M233" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N233" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A234" s="13" t="s">
         <v>1251</v>
-      </c>
-      <c r="B230" s="13"/>
-      <c r="C230" s="14" t="s">
-        <v>949</v>
-      </c>
-      <c r="D230" s="14" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E230" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="F230" s="11">
-        <v>2</v>
-      </c>
-      <c r="G230" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="H230" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I230" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="J230" s="12">
-        <v>558254</v>
-      </c>
-      <c r="K230" s="12">
-        <v>599207</v>
-      </c>
-      <c r="L230" s="12" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.2">
-      <c r="G231" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="H231" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="I231" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="J231" s="12">
-        <v>1833318</v>
-      </c>
-      <c r="K231" s="12">
-        <v>1867117</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A232" s="13" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B232" s="13"/>
-      <c r="C232" s="14" t="s">
-        <v>950</v>
-      </c>
-      <c r="D232" s="14" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E232" s="14"/>
-      <c r="F232" s="11">
-        <v>0</v>
-      </c>
-      <c r="G232" s="11" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-    </row>
-    <row r="234" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A234" s="13" t="s">
-        <v>1253</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="14" t="s">
@@ -17484,10 +18371,19 @@
       <c r="F234" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L234" s="12" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M234" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N234" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B235" s="13"/>
       <c r="C235" s="14" t="s">
@@ -17500,10 +18396,19 @@
       <c r="F235" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L235" s="12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M235" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N235" s="12" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B236" s="13"/>
       <c r="C236" s="14" t="s">
@@ -17516,10 +18421,19 @@
       <c r="F236" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L236" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M236" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N236" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B237" s="13"/>
       <c r="C237" s="14" t="s">
@@ -17548,10 +18462,16 @@
         <v>571882</v>
       </c>
       <c r="L237" s="12" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1341</v>
+      </c>
+      <c r="M237" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N237" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G238" s="11" t="s">
         <v>688</v>
       </c>
@@ -17567,8 +18487,11 @@
       <c r="K238" s="12">
         <v>820593</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M238" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G239" s="11" t="s">
         <v>691</v>
       </c>
@@ -17584,8 +18507,11 @@
       <c r="K239" s="12">
         <v>1222544</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M239" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G240" s="11" t="s">
         <v>694</v>
       </c>
@@ -17601,13 +18527,16 @@
       <c r="K240" s="12">
         <v>1782813</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H241" s="11" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="H242" s="11" t="s">
         <v>1063</v>
       </c>
@@ -17620,10 +18549,13 @@
       <c r="K242" s="12">
         <v>1609060</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M242" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B243" s="13"/>
       <c r="C243" s="14" t="s">
@@ -17637,7 +18569,7 @@
         <v>5</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I243" s="11" t="s">
         <v>704</v>
@@ -17649,12 +18581,18 @@
         <v>332714</v>
       </c>
       <c r="L243" s="12" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1342</v>
+      </c>
+      <c r="M243" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N243" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G244" s="15" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H244" s="11" t="s">
         <v>706</v>
@@ -17668,10 +18606,13 @@
       <c r="K244" s="12">
         <v>618765</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" ht="105" x14ac:dyDescent="0.2">
+      <c r="M244" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="105" x14ac:dyDescent="0.2">
       <c r="G245" s="11" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H245" s="11" t="s">
         <v>1064</v>
@@ -17685,13 +18626,16 @@
       <c r="K245" s="12">
         <v>1087739</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M245" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G246" s="11" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H246" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I246" s="11" t="s">
         <v>714</v>
@@ -17702,10 +18646,13 @@
       <c r="K246" s="12">
         <v>1241416</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M246" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G247" s="11" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I247" s="11" t="s">
         <v>716</v>
@@ -17716,10 +18663,13 @@
       <c r="K247" s="12">
         <v>1493373</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M247" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="13" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B248" s="13"/>
       <c r="C248" s="14" t="s">
@@ -17733,10 +18683,10 @@
         <v>6</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H248" s="11" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I248" s="15" t="s">
         <v>720</v>
@@ -17748,12 +18698,18 @@
         <v>788176</v>
       </c>
       <c r="L248" s="12" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1343</v>
+      </c>
+      <c r="M248" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N248" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G249" s="11" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H249" s="11" t="s">
         <v>722</v>
@@ -17767,10 +18723,13 @@
       <c r="K249" s="12">
         <v>1018193</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M249" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G250" s="11" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H250" s="11" t="s">
         <v>725</v>
@@ -17784,13 +18743,16 @@
       <c r="K250" s="12">
         <v>1171867</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M250" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G251" s="11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H251" s="11" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I251" s="15" t="s">
         <v>729</v>
@@ -17801,10 +18763,13 @@
       <c r="K251" s="12">
         <v>1271815</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M251" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G252" s="11" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H252" s="11" t="s">
         <v>731</v>
@@ -17818,10 +18783,13 @@
       <c r="K252" s="12">
         <v>1351250</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M252" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G253" s="11" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H253" s="11" t="s">
         <v>734</v>
@@ -17835,10 +18803,13 @@
       <c r="K253" s="12">
         <v>1450458</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M253" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A254" s="13" t="s">
-        <v>1273</v>
+        <v>1385</v>
       </c>
       <c r="B254" s="13"/>
       <c r="C254" s="14" t="s">
@@ -17866,10 +18837,19 @@
       <c r="K254" s="12">
         <v>6120760</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L254" s="12" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M254" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N254" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A255" s="13" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="B255" s="13"/>
       <c r="C255" s="14" t="s">
@@ -17885,10 +18865,19 @@
       <c r="G255" s="11" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L255" s="12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M255" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N255" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A256" s="13" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B256" s="13"/>
       <c r="C256" s="14" t="s">
@@ -17905,7 +18894,7 @@
         <v>743</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="J256" s="12">
         <v>1969474</v>
@@ -17914,10 +18903,16 @@
         <v>1976686</v>
       </c>
       <c r="L256" s="12" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1346</v>
+      </c>
+      <c r="M256" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N256" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="14"/>
@@ -17926,7 +18921,7 @@
       <c r="F257" s="11"/>
       <c r="H257" s="11"/>
       <c r="I257" s="11" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="J257" s="12">
         <v>2040855</v>
@@ -17934,10 +18929,13 @@
       <c r="K257" s="12">
         <v>2042912</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="M257" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A258" s="13" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B258" s="13"/>
       <c r="C258" s="14" t="s">
@@ -17950,10 +18948,19 @@
       <c r="F258" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L258" s="12" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M258" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N258" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A259" s="13" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="14" t="s">
@@ -17966,10 +18973,19 @@
       <c r="F259" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="L259" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M259" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N259" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A260" s="13" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B260" s="13"/>
       <c r="C260" s="14" t="s">
@@ -17982,10 +18998,19 @@
       <c r="F260" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="L260" s="12" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M260" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N260" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A261" s="13" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B261" s="13"/>
       <c r="C261" s="14" t="s">
@@ -18014,10 +19039,16 @@
         <v>1942032</v>
       </c>
       <c r="L261" s="12" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="135" x14ac:dyDescent="0.2">
+        <v>1347</v>
+      </c>
+      <c r="M261" s="12" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N261" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="G262" s="12" t="s">
         <v>1066</v>
       </c>
@@ -18033,8 +19064,11 @@
       <c r="K262" s="12">
         <v>1573281</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="M262" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="H263" s="11" t="s">
         <v>756</v>
       </c>
@@ -18047,10 +19081,13 @@
       <c r="K263" s="12">
         <v>550021</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="M263" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A264" s="13" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B264" s="13"/>
       <c r="C264" s="14" t="s">
@@ -18063,19 +19100,25 @@
         <v>1068</v>
       </c>
       <c r="L264" s="12" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+        <v>1410</v>
+      </c>
+      <c r="M264" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N264" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A265" s="13" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B265" s="13"/>
       <c r="C265" s="13" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D265" s="13" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E265" s="13"/>
       <c r="F265" s="11">
@@ -18090,8 +19133,11 @@
       <c r="I265" s="11" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="L265" s="11" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G266" s="11" t="s">
         <v>763</v>
       </c>
@@ -18102,9 +19148,9 @@
         <v>764</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="170" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A267" s="13" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B267" s="13"/>
       <c r="C267" s="14" t="s">
@@ -18135,17 +19181,23 @@
         <v>3560198</v>
       </c>
       <c r="L267" s="12" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1348</v>
+      </c>
+      <c r="M267" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N267" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H268" s="11" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G269" s="11" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="H269" s="11" t="s">
         <v>771</v>
@@ -18159,10 +19211,13 @@
       <c r="K269" s="12">
         <v>2441676</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M269" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G270" s="11" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="H270" s="11" t="s">
         <v>771</v>
@@ -18176,10 +19231,13 @@
       <c r="K270" s="12">
         <v>2447920</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M270" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B271" s="13"/>
       <c r="C271" s="14" t="s">
@@ -18196,7 +19254,7 @@
         <v>779</v>
       </c>
       <c r="H271" s="11" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I271" s="11" t="s">
         <v>781</v>
@@ -18208,10 +19266,16 @@
         <v>690375</v>
       </c>
       <c r="L271" s="12" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1349</v>
+      </c>
+      <c r="M271" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N271" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G272" s="11" t="s">
         <v>782</v>
       </c>
@@ -18227,8 +19291,11 @@
       <c r="K272" s="12">
         <v>2404268</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M272" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G273" s="11" t="s">
         <v>785</v>
       </c>
@@ -18244,8 +19311,11 @@
       <c r="K273" s="12">
         <v>1540790</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M273" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G274" s="11" t="s">
         <v>787</v>
       </c>
@@ -18261,8 +19331,11 @@
       <c r="K274" s="12">
         <v>1631056</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M274" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G275" s="11" t="s">
         <v>790</v>
       </c>
@@ -18278,8 +19351,11 @@
       <c r="K275" s="12">
         <v>530148</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M275" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G276" s="11" t="s">
         <v>793</v>
       </c>
@@ -18295,8 +19371,11 @@
       <c r="K276" s="12">
         <v>2022372</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M276" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G277" s="11" t="s">
         <v>796</v>
       </c>
@@ -18312,8 +19391,11 @@
       <c r="K277" s="12">
         <v>2183135</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M277" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G278" s="11" t="s">
         <v>799</v>
       </c>
@@ -18329,8 +19411,11 @@
       <c r="K278" s="12">
         <v>2199117</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M278" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G279" s="11" t="s">
         <v>802</v>
       </c>
@@ -18346,8 +19431,11 @@
       <c r="K279" s="12">
         <v>2656815</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M279" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G280" s="11" t="s">
         <v>805</v>
       </c>
@@ -18363,8 +19451,11 @@
       <c r="K280" s="12">
         <v>1790108</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="M280" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="H281" s="11" t="s">
         <v>808</v>
       </c>
@@ -18377,10 +19468,13 @@
       <c r="K281" s="12">
         <v>608483</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="M281" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A282" s="13" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B282" s="13"/>
       <c r="C282" s="14" t="s">
@@ -18411,10 +19505,16 @@
         <v>467611</v>
       </c>
       <c r="L282" s="12" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1350</v>
+      </c>
+      <c r="M282" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N282" s="12" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G283" s="11" t="s">
         <v>814</v>
       </c>
@@ -18430,8 +19530,11 @@
       <c r="K283" s="12">
         <v>951359</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M283" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G284" s="11" t="s">
         <v>817</v>
       </c>
@@ -18447,8 +19550,11 @@
       <c r="K284" s="12">
         <v>1142561</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M284" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G285" s="11" t="s">
         <v>819</v>
       </c>
@@ -18456,7 +19562,7 @@
         <v>820</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="J285" s="12">
         <v>1161143</v>
@@ -18464,8 +19570,11 @@
       <c r="K285" s="12">
         <v>1217907</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M285" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G286" s="11" t="s">
         <v>822</v>
       </c>
@@ -18481,8 +19590,11 @@
       <c r="K286" s="12">
         <v>1392763</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M286" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G287" s="11" t="s">
         <v>825</v>
       </c>
@@ -18498,8 +19610,11 @@
       <c r="K287" s="12">
         <v>1556451</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M287" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G288" s="11" t="s">
         <v>827</v>
       </c>
@@ -18515,8 +19630,11 @@
       <c r="K288" s="12">
         <v>1855582</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M288" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G289" s="11" t="s">
         <v>829</v>
       </c>
@@ -18529,10 +19647,13 @@
       <c r="K289" s="12">
         <v>2019519</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M289" s="12" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A290" s="13" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B290" s="13"/>
       <c r="C290" s="14" t="s">
@@ -18561,10 +19682,16 @@
         <v>971311</v>
       </c>
       <c r="L290" s="12" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1352</v>
+      </c>
+      <c r="M290" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N290" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G291" s="11" t="s">
         <v>836</v>
       </c>
@@ -18580,8 +19707,11 @@
       <c r="K291" s="12">
         <v>1243405</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M291" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G292" s="11" t="s">
         <v>839</v>
       </c>
@@ -18597,8 +19727,11 @@
       <c r="K292" s="12">
         <v>1416574</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M292" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G293" s="11" t="s">
         <v>842</v>
       </c>
@@ -18614,13 +19747,16 @@
       <c r="K293" s="12">
         <v>2122603</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M293" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G294" s="11" t="s">
         <v>845</v>
       </c>
       <c r="H294" s="11" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I294" s="11" t="s">
         <v>847</v>
@@ -18631,8 +19767,11 @@
       <c r="K294" s="12">
         <v>2413098</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M294" s="12" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G295" s="11" t="s">
         <v>848</v>
       </c>
@@ -18648,13 +19787,16 @@
       <c r="K295" s="12">
         <v>4547806</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M295" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G296" s="11" t="s">
         <v>852</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I296" s="11" t="s">
         <v>854</v>
@@ -18666,10 +19808,13 @@
         <v>19777</v>
       </c>
       <c r="L296" s="11" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+        <v>1353</v>
+      </c>
+      <c r="M296" s="11" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G297" s="11" t="s">
         <v>855</v>
       </c>
@@ -18685,8 +19830,14 @@
       <c r="K297" s="12">
         <v>2563203</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" ht="135" x14ac:dyDescent="0.2">
+      <c r="L297" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M297" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="H298" s="11" t="s">
         <v>858</v>
       </c>
@@ -18699,10 +19850,13 @@
       <c r="K298" s="12">
         <v>2608050</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" ht="119" x14ac:dyDescent="0.2">
+      <c r="M298" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A299" s="13" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B299" s="13"/>
       <c r="C299" s="14" t="s">
@@ -18728,10 +19882,16 @@
         <v>2456467</v>
       </c>
       <c r="L299" s="12" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M299" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N299" s="12" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G300" s="11" t="s">
         <v>865</v>
       </c>
@@ -18747,8 +19907,11 @@
       <c r="K300" s="12">
         <v>2700576</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+      <c r="M300" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="G301" s="11" t="s">
         <v>868</v>
       </c>
@@ -18764,8 +19927,11 @@
       <c r="K301" s="12">
         <v>3255252</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M301" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G302" s="11" t="s">
         <v>872</v>
       </c>
@@ -18781,8 +19947,11 @@
       <c r="K302" s="12">
         <v>3399754</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M302" s="12" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="G303" s="11" t="s">
         <v>874</v>
       </c>
@@ -18798,13 +19967,25 @@
       <c r="K303" s="12">
         <v>3601343</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" s="12" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
+      <c r="L304" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M304" s="12" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N304" s="12" t="s">
+        <v>1382</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18852,14 +20033,14 @@
     <hyperlink ref="C178" r:id="rId42" xr:uid="{B0971557-D4A3-554B-9BA6-64E07B954566}"/>
     <hyperlink ref="C179" r:id="rId43" xr:uid="{2C952DD9-82AB-9947-BEBF-1C0761F5B1A7}"/>
     <hyperlink ref="C195" r:id="rId44" xr:uid="{C8E2FEAE-D169-484B-9C5F-EFB536F63066}"/>
-    <hyperlink ref="C205" r:id="rId45" xr:uid="{CA320283-4D47-824C-9714-711BC8D06225}"/>
-    <hyperlink ref="C208" r:id="rId46" xr:uid="{C0C55CC3-851D-A047-B07B-927871AE6A36}"/>
-    <hyperlink ref="C219" r:id="rId47" xr:uid="{0C98A7C7-9A4E-7E4A-A40E-06EF58F0C6AC}"/>
-    <hyperlink ref="C220" r:id="rId48" xr:uid="{3E0937F6-591E-5145-8E3B-D4AB316CDC34}"/>
-    <hyperlink ref="C223" r:id="rId49" xr:uid="{EF7439CE-DEAE-0944-A3DE-17015098B00F}"/>
-    <hyperlink ref="C227" r:id="rId50" xr:uid="{70C0F72B-0CB5-6149-927A-BC304695DCD8}"/>
-    <hyperlink ref="C230" r:id="rId51" xr:uid="{3F2A4912-4B2D-DC41-AB9A-83835C734CE0}"/>
-    <hyperlink ref="C232" r:id="rId52" xr:uid="{B830A365-1DEF-A841-A7B1-10EB60130750}"/>
+    <hyperlink ref="C206" r:id="rId45" xr:uid="{CA320283-4D47-824C-9714-711BC8D06225}"/>
+    <hyperlink ref="C209" r:id="rId46" xr:uid="{C0C55CC3-851D-A047-B07B-927871AE6A36}"/>
+    <hyperlink ref="C220" r:id="rId47" xr:uid="{0C98A7C7-9A4E-7E4A-A40E-06EF58F0C6AC}"/>
+    <hyperlink ref="C221" r:id="rId48" xr:uid="{3E0937F6-591E-5145-8E3B-D4AB316CDC34}"/>
+    <hyperlink ref="C224" r:id="rId49" xr:uid="{EF7439CE-DEAE-0944-A3DE-17015098B00F}"/>
+    <hyperlink ref="C228" r:id="rId50" xr:uid="{70C0F72B-0CB5-6149-927A-BC304695DCD8}"/>
+    <hyperlink ref="C231" r:id="rId51" xr:uid="{3F2A4912-4B2D-DC41-AB9A-83835C734CE0}"/>
+    <hyperlink ref="C233" r:id="rId52" xr:uid="{B830A365-1DEF-A841-A7B1-10EB60130750}"/>
     <hyperlink ref="C234" r:id="rId53" xr:uid="{CC7758A7-570A-3541-A735-BC563E75AE66}"/>
     <hyperlink ref="C235" r:id="rId54" xr:uid="{9A73FEA3-EC66-7B47-A44B-6F57D64DE48B}"/>
     <hyperlink ref="C236" r:id="rId55" xr:uid="{D36AEB15-62F7-FE49-A04E-DF356A78B80E}"/>
@@ -18923,14 +20104,14 @@
     <hyperlink ref="D178" r:id="rId113" xr:uid="{E34B8F1A-28C7-E849-8D6F-F95A3902A2DE}"/>
     <hyperlink ref="D179" r:id="rId114" xr:uid="{9BE88C91-A8E1-B144-B646-8E3D64EF240C}"/>
     <hyperlink ref="D195" r:id="rId115" xr:uid="{CFE18F84-6205-9C44-B38F-0BB882A28FD6}"/>
-    <hyperlink ref="D205" r:id="rId116" xr:uid="{252758E4-16DF-1348-967F-22BB5A4FD465}"/>
-    <hyperlink ref="D208" r:id="rId117" xr:uid="{EEAE447D-BD37-D64E-8645-6F27891B744D}"/>
-    <hyperlink ref="D219" r:id="rId118" xr:uid="{E4E81211-B4C8-0D4D-ACDC-4776E458FDB5}"/>
-    <hyperlink ref="D220" r:id="rId119" xr:uid="{8EA111D0-742E-2F48-8812-E894C6AF7334}"/>
-    <hyperlink ref="D223" r:id="rId120" xr:uid="{5FD60D6D-6018-3948-8862-3E7D4D9AB849}"/>
-    <hyperlink ref="D227" r:id="rId121" xr:uid="{06A45C6A-304C-F046-A006-2A51AB6154F8}"/>
-    <hyperlink ref="D230" r:id="rId122" xr:uid="{40C3C8BE-03A4-7143-89CC-5E5B0427FEE3}"/>
-    <hyperlink ref="D232" r:id="rId123" xr:uid="{6FF19703-C7A5-F94B-BAD7-C82DEE5AA121}"/>
+    <hyperlink ref="D206" r:id="rId116" xr:uid="{252758E4-16DF-1348-967F-22BB5A4FD465}"/>
+    <hyperlink ref="D209" r:id="rId117" xr:uid="{EEAE447D-BD37-D64E-8645-6F27891B744D}"/>
+    <hyperlink ref="D220" r:id="rId118" xr:uid="{E4E81211-B4C8-0D4D-ACDC-4776E458FDB5}"/>
+    <hyperlink ref="D221" r:id="rId119" xr:uid="{8EA111D0-742E-2F48-8812-E894C6AF7334}"/>
+    <hyperlink ref="D224" r:id="rId120" xr:uid="{5FD60D6D-6018-3948-8862-3E7D4D9AB849}"/>
+    <hyperlink ref="D228" r:id="rId121" xr:uid="{06A45C6A-304C-F046-A006-2A51AB6154F8}"/>
+    <hyperlink ref="D231" r:id="rId122" xr:uid="{40C3C8BE-03A4-7143-89CC-5E5B0427FEE3}"/>
+    <hyperlink ref="D233" r:id="rId123" xr:uid="{6FF19703-C7A5-F94B-BAD7-C82DEE5AA121}"/>
     <hyperlink ref="D234" r:id="rId124" xr:uid="{BDC853C6-A968-194D-945D-08EBFAE57783}"/>
     <hyperlink ref="D235" r:id="rId125" xr:uid="{2F161E82-20C1-AD48-AC41-10B4537BCA7E}"/>
     <hyperlink ref="D243" r:id="rId126" xr:uid="{417E9AEE-6A4C-E54E-A36C-E3AB21D75544}"/>

--- a/validation/casjen2003_newloci.xlsx
+++ b/validation/casjen2003_newloci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/GitHub/happie/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA139D8-E612-2C44-85FF-DBE445FD1737}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B25C8F-95E4-D042-9F26-A6D41AA7C14F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="460" windowWidth="19940" windowHeight="17540" activeTab="1" xr2:uid="{F51F202F-5ED8-3046-92A6-7C4D777D6589}"/>
   </bookViews>
@@ -9143,7 +9143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
         <v>76</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>159</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>169</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
         <v>182</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="C121" s="3" t="s">
         <v>206</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="134" spans="3:6" ht="120" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" ht="135" x14ac:dyDescent="0.2">
       <c r="D134" s="1" t="s">
         <v>232</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="141" spans="3:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" ht="60" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
         <v>245</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="143" spans="3:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" ht="60" x14ac:dyDescent="0.2">
       <c r="C143" s="1" t="s">
         <v>249</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>275</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>306</v>
       </c>
@@ -10539,7 +10539,7 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>319</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="C205" s="3" t="s">
         <v>378</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="C244" s="1" t="s">
         <v>442</v>
       </c>
@@ -11342,7 +11342,7 @@
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
     </row>
-    <row r="269" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>485</v>
       </c>
@@ -11553,7 +11553,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>533</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>685</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="D379" s="8" t="s">
         <v>708</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="D382" s="8" t="s">
         <v>713</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>717</v>
       </c>
@@ -12492,7 +12492,7 @@
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
     </row>
-    <row r="395" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>742</v>
       </c>
@@ -12592,7 +12592,7 @@
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
     </row>
-    <row r="409" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>759</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="C429" s="1" t="s">
         <v>799</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="E465" s="1" t="s">
         <v>871</v>
       </c>
@@ -13146,10 +13146,10 @@
   <dimension ref="A1:P262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3460" ySplit="1040" topLeftCell="G117" activePane="topRight"/>
+      <pane xSplit="3460" ySplit="1040" topLeftCell="C93" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
       <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
@@ -13546,7 +13546,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="G14" s="15" t="s">
         <v>986</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="G27" s="11" t="s">
         <v>81</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="105" x14ac:dyDescent="0.2">
       <c r="G28" s="11" t="s">
         <v>84</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="G54" s="11" t="s">
         <v>1013</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="105" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="120" x14ac:dyDescent="0.2">
       <c r="G56" s="11" t="s">
         <v>159</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="90" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="105" x14ac:dyDescent="0.2">
       <c r="G75" s="11" t="s">
         <v>1184</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="323" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>1188</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="75" x14ac:dyDescent="0.2">
       <c r="G88" s="15" t="s">
         <v>381</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="G90" s="15" t="s">
         <v>388</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="225" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="G126" s="11" t="s">
         <v>501</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G137" s="11" t="s">
         <v>537</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="150" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="180" x14ac:dyDescent="0.2">
       <c r="G145" s="11" t="s">
         <v>560</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="120" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="135" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
         <v>1366</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="G190" s="11" t="s">
         <v>1245</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="G198" s="11" t="s">
         <v>688</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="H201" s="11" t="s">
         <v>1062</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="105" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="120" x14ac:dyDescent="0.2">
       <c r="G204" s="11" t="s">
         <v>1254</v>
       </c>
@@ -19011,7 +19011,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="135" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" ht="150" x14ac:dyDescent="0.2">
       <c r="G221" s="12" t="s">
         <v>1065</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" ht="60" x14ac:dyDescent="0.2">
       <c r="G236" s="11" t="s">
         <v>805</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="36" spans="7:14" s="12" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:14" s="12" customFormat="1" ht="225" x14ac:dyDescent="0.2">
       <c r="G36" s="11" t="s">
         <v>1025</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="44" spans="7:14" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:14" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="G44" s="11" t="s">
         <v>245</v>
       </c>
